--- a/OperatorPortal/Tests/Organizations/bank.xlsx
+++ b/OperatorPortal/Tests/Organizations/bank.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="205">
   <si>
     <t>teczka</t>
   </si>
@@ -225,10 +225,10 @@
     <t>Ostatnie odwiedziny data</t>
   </si>
   <si>
-    <t>014937948</t>
-  </si>
-  <si>
-    <t>0000122691</t>
+    <t>141904608</t>
+  </si>
+  <si>
+    <t>0000330954</t>
   </si>
   <si>
     <t>Stowarzyszenie</t>
@@ -300,13 +300,10 @@
     <t>brak</t>
   </si>
   <si>
-    <t xml:space="preserve">	5273024806</t>
-  </si>
-  <si>
-    <t>523469999</t>
-  </si>
-  <si>
-    <t>0000998842</t>
+    <t>389852820</t>
+  </si>
+  <si>
+    <t>0000914673</t>
   </si>
   <si>
     <t>Fundacja</t>
@@ -348,10 +345,10 @@
     <t>Użyczony dostawczy do 2t</t>
   </si>
   <si>
-    <t>00097265400040</t>
-  </si>
-  <si>
-    <t>0000139796</t>
+    <t>590002387</t>
+  </si>
+  <si>
+    <t>0000123456</t>
   </si>
   <si>
     <t>MONAR</t>
@@ -396,11 +393,10 @@
     <t>prywatny pracownika SUV 500 kg</t>
   </si>
   <si>
-    <t xml:space="preserve">
-38818033000000</t>
-  </si>
-  <si>
-    <t>0000881474</t>
+    <t>590002388</t>
+  </si>
+  <si>
+    <t>0000123457</t>
   </si>
   <si>
     <t>Fundacja Uniters (United Volunteers)</t>
@@ -445,10 +441,10 @@
     <t>własny</t>
   </si>
   <si>
-    <t>00077601902583</t>
-  </si>
-  <si>
-    <t>0000109984</t>
+    <t>590002389</t>
+  </si>
+  <si>
+    <t>0000123458</t>
   </si>
   <si>
     <t>PZERiI</t>
@@ -484,7 +480,7 @@
     <t>Pieniądze na transport w projekcie UM - wypożyczany</t>
   </si>
   <si>
-    <t>040120641</t>
+    <t>590002390</t>
   </si>
   <si>
     <t>Organizacja Kościelna</t>
@@ -547,10 +543,10 @@
     <t>Ciepły Posiłek</t>
   </si>
   <si>
-    <t>360409948</t>
-  </si>
-  <si>
-    <t>0000533518</t>
+    <t>590002391</t>
+  </si>
+  <si>
+    <t>0000123460</t>
   </si>
   <si>
     <t>FUNDACJA 'A KUKU'</t>
@@ -583,10 +579,10 @@
     <t>?</t>
   </si>
   <si>
-    <t>142921276</t>
-  </si>
-  <si>
-    <t>0000385460</t>
+    <t>590002392</t>
+  </si>
+  <si>
+    <t>0000123461</t>
   </si>
   <si>
     <t>FUNDACJA PO DRUGIE</t>
@@ -620,6 +616,12 @@
   </si>
   <si>
     <t>za mały</t>
+  </si>
+  <si>
+    <t>590002393</t>
+  </si>
+  <si>
+    <t>0000123462</t>
   </si>
   <si>
     <t>Jednostka lokalna</t>
@@ -635,10 +637,10 @@
     <t xml:space="preserve">Wawer  </t>
   </si>
   <si>
-    <t>01531627200038</t>
-  </si>
-  <si>
-    <t>0000134684 </t>
+    <t>590002394</t>
+  </si>
+  <si>
+    <t>0000123463</t>
   </si>
   <si>
     <t>TPD</t>
@@ -668,7 +670,10 @@
     <t>Ł</t>
   </si>
   <si>
-    <t>01531627200267</t>
+    <t>590002395</t>
+  </si>
+  <si>
+    <t>0000123464</t>
   </si>
   <si>
     <t>Zarząd Miejsko-Powiatowy TPD w Pruszkowie</t>
@@ -909,7 +914,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="77">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -943,9 +948,6 @@
     <xf borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" textRotation="45" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" textRotation="45" vertical="center" wrapText="1"/>
-    </xf>
     <xf borderId="1" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" textRotation="45" vertical="center" wrapText="1"/>
     </xf>
@@ -961,6 +963,12 @@
     <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
+    <xf borderId="3" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
     <xf borderId="3" fillId="3" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
@@ -1014,6 +1022,12 @@
     </xf>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -1477,70 +1491,70 @@
       <c r="AE1" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="11" t="s">
+      <c r="AF1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AG1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AH1" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AI1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="11" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="12" t="s">
+      <c r="AK1" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="12" t="s">
+      <c r="AL1" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="12" t="s">
+      <c r="AM1" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="12" t="s">
+      <c r="AN1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="12" t="s">
+      <c r="AO1" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="12" t="s">
+      <c r="AP1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="12" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="13" t="s">
+      <c r="AR1" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="14" t="s">
+      <c r="AS1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="14" t="s">
+      <c r="AT1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="14" t="s">
+      <c r="AU1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="14" t="s">
+      <c r="AV1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="14" t="s">
+      <c r="AW1" s="13" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" ht="35.25" customHeight="1">
-      <c r="A2" s="15">
+      <c r="A2" s="14">
         <v>2.0</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="15">
         <v>5.25213146E9</v>
       </c>
       <c r="C2" s="16">
-        <v>5.25213146E9</v>
+        <v>7.010185832E9</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>49</v>
@@ -1548,3274 +1562,3274 @@
       <c r="E2" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="18" t="s">
+      <c r="K2" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="N2" s="19" t="str">
+      <c r="N2" s="20" t="str">
         <f t="shared" ref="N2:O2" si="1">H2</f>
         <v>Stowarzyszenie Miłosierdzia Św.Wincentego A'Paulo przy Parafii Św.Krzyża</v>
       </c>
-      <c r="O2" s="19" t="str">
+      <c r="O2" s="20" t="str">
         <f t="shared" si="1"/>
         <v>ul. Krakowskie Przedmieście 3, 00-047 Warszawa</v>
       </c>
-      <c r="P2" s="20">
+      <c r="P2" s="21">
         <v>9.87654321E8</v>
       </c>
-      <c r="Q2" s="21" t="s">
+      <c r="Q2" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="R2" s="22">
+      <c r="R2" s="23">
         <v>1.23456789E8</v>
       </c>
-      <c r="S2" s="23" t="s">
+      <c r="S2" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="T2" s="22">
+      <c r="T2" s="23">
         <v>6.01790727E8</v>
       </c>
-      <c r="U2" s="23" t="s">
+      <c r="U2" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="V2" s="23" t="s">
+      <c r="V2" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="W2" s="23" t="s">
+      <c r="W2" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="X2" s="23" t="s">
+      <c r="X2" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="Y2" s="22">
+      <c r="Y2" s="23">
         <v>1.23456789E8</v>
       </c>
-      <c r="Z2" s="23" t="s">
+      <c r="Z2" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="AA2" s="23" t="s">
+      <c r="AA2" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="AB2" s="24">
+      <c r="AB2" s="25">
         <v>1.23456789E8</v>
       </c>
-      <c r="AC2" s="25">
+      <c r="AC2" s="26">
         <v>125.0</v>
       </c>
-      <c r="AD2" s="26" t="s">
+      <c r="AD2" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="28" t="s">
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="AJ2" s="28" t="s">
+      <c r="AJ2" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="AK2" s="29" t="s">
+      <c r="AK2" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="AL2" s="30" t="s">
+      <c r="AL2" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="AM2" s="29" t="s">
+      <c r="AM2" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="AN2" s="30" t="s">
+      <c r="AN2" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="AO2" s="30" t="s">
+      <c r="AO2" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="AP2" s="30" t="s">
+      <c r="AP2" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="AQ2" s="30" t="s">
+      <c r="AQ2" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="AR2" s="31" t="s">
+      <c r="AR2" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="AS2" s="32">
+      <c r="AS2" s="33">
         <v>42167.0</v>
       </c>
-      <c r="AT2" s="32">
+      <c r="AT2" s="33">
         <v>43403.0</v>
       </c>
-      <c r="AU2" s="32" t="s">
+      <c r="AU2" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="AV2" s="32">
+      <c r="AV2" s="33">
         <v>45398.0</v>
       </c>
-      <c r="AW2" s="33">
+      <c r="AW2" s="34">
         <v>45398.0</v>
       </c>
     </row>
     <row r="3" ht="35.25" customHeight="1">
-      <c r="A3" s="18">
+      <c r="A3" s="19">
         <v>3.0</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="35">
         <v>5.273024806E9</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="36">
+        <v>5.252874907E9</v>
+      </c>
+      <c r="D3" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="E3" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="F3" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="G3" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="18" t="s">
+      <c r="I3" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="J3" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="K3" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="K3" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="19" t="str">
+      <c r="N3" s="20" t="str">
         <f t="shared" ref="N3:O3" si="2">H3</f>
         <v>Fundacja Dar Losu</v>
       </c>
-      <c r="O3" s="19" t="str">
+      <c r="O3" s="20" t="str">
         <f t="shared" si="2"/>
         <v>Al. Jerozolimskie 85/21, 02-001 Warszawa</v>
       </c>
-      <c r="P3" s="20">
+      <c r="P3" s="21">
         <v>9.87654321E8</v>
       </c>
-      <c r="Q3" s="36" t="s">
+      <c r="Q3" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="R3" s="23">
+        <v>1.23456789E8</v>
+      </c>
+      <c r="S3" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="R3" s="22">
+      <c r="T3" s="40">
+        <v>7.30394652E8</v>
+      </c>
+      <c r="U3" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="V3" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="W3" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="X3" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" s="23">
         <v>1.23456789E8</v>
       </c>
-      <c r="S3" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="T3" s="37">
-        <v>7.30394652E8</v>
-      </c>
-      <c r="U3" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="V3" s="23" t="s">
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB3" s="25">
+        <v>1.23456789E8</v>
+      </c>
+      <c r="AC3" s="42">
+        <v>130.0</v>
+      </c>
+      <c r="AD3" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL3" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM3" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="AN3" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="AO3" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP3" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ3" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="AR3" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS3" s="44">
+        <v>45351.0</v>
+      </c>
+      <c r="AT3" s="44">
+        <v>45351.0</v>
+      </c>
+      <c r="AU3" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV3" s="44">
+        <v>45327.0</v>
+      </c>
+      <c r="AW3" s="45">
+        <v>45327.0</v>
+      </c>
+    </row>
+    <row r="4" ht="35.25" customHeight="1">
+      <c r="A4" s="19">
+        <v>10.0</v>
+      </c>
+      <c r="B4" s="35">
+        <v>5.261038205E9</v>
+      </c>
+      <c r="C4" s="36">
+        <v>1.234563218E9</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="O4" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="P4" s="21">
+        <v>9.87654321E8</v>
+      </c>
+      <c r="Q4" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="R4" s="23">
+        <v>1.23456789E8</v>
+      </c>
+      <c r="S4" s="24"/>
+      <c r="T4" s="40">
+        <v>6.0265416E8</v>
+      </c>
+      <c r="U4" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="V4" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="W3" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="X3" s="23" t="s">
+      <c r="W4" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="X4" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="Y3" s="22">
+      <c r="Y4" s="23">
         <v>1.23456789E8</v>
       </c>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="23" t="s">
+      <c r="Z4" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA4" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="AB3" s="24">
+      <c r="AB4" s="25">
         <v>1.23456789E8</v>
       </c>
-      <c r="AC3" s="39">
-        <v>130.0</v>
-      </c>
-      <c r="AD3" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="28"/>
-      <c r="AG3" s="28"/>
-      <c r="AH3" s="28" t="s">
+      <c r="AC4" s="42">
+        <v>19.0</v>
+      </c>
+      <c r="AD4" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE4" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="AI3" s="28"/>
-      <c r="AJ3" s="28"/>
-      <c r="AK3" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL3" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM3" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="AN3" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO3" s="30" t="s">
+      <c r="AF4" s="29"/>
+      <c r="AG4" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="AH4" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI4" s="29"/>
+      <c r="AJ4" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK4" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL4" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM4" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN4" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="AO4" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="AP3" s="30" t="s">
+      <c r="AP4" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="AQ3" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="AR3" s="31" t="s">
+      <c r="AQ4" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR4" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="AS3" s="41">
-        <v>45351.0</v>
-      </c>
-      <c r="AT3" s="41">
-        <v>45351.0</v>
-      </c>
-      <c r="AU3" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="AV3" s="41">
-        <v>45327.0</v>
-      </c>
-      <c r="AW3" s="42">
-        <v>45327.0</v>
-      </c>
-    </row>
-    <row r="4" ht="35.25" customHeight="1">
-      <c r="A4" s="18">
-        <v>10.0</v>
-      </c>
-      <c r="B4" s="34">
-        <v>5.261038205E9</v>
-      </c>
-      <c r="C4" s="34">
-        <v>5.252208139E9</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="J4" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="K4" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="L4" s="18" t="s">
+      <c r="AS4" s="44">
+        <v>42311.0</v>
+      </c>
+      <c r="AT4" s="44">
+        <v>42311.0</v>
+      </c>
+      <c r="AU4" s="44">
+        <v>43888.0</v>
+      </c>
+      <c r="AV4" s="44">
+        <v>45359.0</v>
+      </c>
+      <c r="AW4" s="45">
+        <v>45359.0</v>
+      </c>
+    </row>
+    <row r="5" ht="35.25" customHeight="1">
+      <c r="A5" s="19">
+        <v>15.0</v>
+      </c>
+      <c r="B5" s="35">
+        <v>5.242913528E9</v>
+      </c>
+      <c r="C5" s="36">
+        <v>1.234563218E9</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="L5" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="M4" s="18" t="s">
+      <c r="M5" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="N4" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="O4" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="P4" s="20">
-        <v>9.87654321E8</v>
-      </c>
-      <c r="Q4" s="36" t="s">
-        <v>97</v>
-      </c>
-      <c r="R4" s="22">
-        <v>1.23456789E8</v>
-      </c>
-      <c r="S4" s="23"/>
-      <c r="T4" s="37">
-        <v>6.0265416E8</v>
-      </c>
-      <c r="U4" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="V4" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="W4" s="38" t="s">
-        <v>99</v>
-      </c>
-      <c r="X4" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y4" s="22">
-        <v>1.23456789E8</v>
-      </c>
-      <c r="Z4" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA4" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB4" s="24">
-        <v>1.23456789E8</v>
-      </c>
-      <c r="AC4" s="39">
-        <v>19.0</v>
-      </c>
-      <c r="AD4" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE4" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF4" s="28"/>
-      <c r="AG4" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="AH4" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI4" s="28"/>
-      <c r="AJ4" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="AK4" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="AL4" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="AM4" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="AN4" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO4" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP4" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ4" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="AR4" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS4" s="41">
-        <v>42311.0</v>
-      </c>
-      <c r="AT4" s="41">
-        <v>42311.0</v>
-      </c>
-      <c r="AU4" s="41">
-        <v>43888.0</v>
-      </c>
-      <c r="AV4" s="41">
-        <v>45359.0</v>
-      </c>
-      <c r="AW4" s="42">
-        <v>45359.0</v>
-      </c>
-    </row>
-    <row r="5" ht="35.25" customHeight="1">
-      <c r="A5" s="18">
-        <v>15.0</v>
-      </c>
-      <c r="B5" s="34">
-        <v>5.242913528E9</v>
-      </c>
-      <c r="C5" s="34">
-        <v>5.242913528E9</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="G5" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="I5" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="J5" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="L5" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="N5" s="19" t="str">
+      <c r="N5" s="20" t="str">
         <f t="shared" ref="N5:O5" si="3">H5</f>
         <v>Fundacja Uniters (United Volunteers)</v>
       </c>
-      <c r="O5" s="19" t="str">
+      <c r="O5" s="20" t="str">
         <f t="shared" si="3"/>
         <v>ul. Klasyków 10A/19, 03-115 Warszawa</v>
       </c>
-      <c r="P5" s="20">
+      <c r="P5" s="21">
         <v>9.87654321E8</v>
       </c>
-      <c r="Q5" s="36" t="s">
+      <c r="Q5" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="R5" s="23">
+        <v>1.23456789E8</v>
+      </c>
+      <c r="S5" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="R5" s="22">
+      <c r="T5" s="40">
+        <v>7.84859967E8</v>
+      </c>
+      <c r="U5" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="V5" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="W5" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="X5" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y5" s="23">
         <v>1.23456789E8</v>
       </c>
-      <c r="S5" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="T5" s="37">
-        <v>7.84859967E8</v>
-      </c>
-      <c r="U5" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="V5" s="23" t="s">
+      <c r="Z5" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA5" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB5" s="25">
+        <v>1.23456789E8</v>
+      </c>
+      <c r="AC5" s="42">
+        <v>1500.0</v>
+      </c>
+      <c r="AD5" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE5" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF5" s="29"/>
+      <c r="AG5" s="29"/>
+      <c r="AH5" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI5" s="29"/>
+      <c r="AJ5" s="29"/>
+      <c r="AK5" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL5" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM5" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="AN5" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO5" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP5" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ5" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR5" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS5" s="44">
+        <v>45338.0</v>
+      </c>
+      <c r="AT5" s="44">
+        <v>45427.0</v>
+      </c>
+      <c r="AU5" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV5" s="44">
+        <v>45397.0</v>
+      </c>
+      <c r="AW5" s="45">
+        <v>45397.0</v>
+      </c>
+    </row>
+    <row r="6" ht="35.25" customHeight="1">
+      <c r="A6" s="19">
+        <v>20.0</v>
+      </c>
+      <c r="B6" s="35">
+        <v>5.251562577E9</v>
+      </c>
+      <c r="C6" s="36">
+        <v>1.234563218E9</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="J6" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="K6" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="N6" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="O6" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="P6" s="21">
+        <v>9.87654321E8</v>
+      </c>
+      <c r="Q6" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="R6" s="23">
+        <v>1.23456789E8</v>
+      </c>
+      <c r="S6" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="T6" s="49">
+        <v>7.91551013E8</v>
+      </c>
+      <c r="U6" s="41"/>
+      <c r="V6" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="W5" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="X5" s="23" t="s">
+      <c r="W6" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="X6" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="Y5" s="22">
+      <c r="Y6" s="23">
         <v>1.23456789E8</v>
       </c>
-      <c r="Z5" s="38" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA5" s="23" t="s">
+      <c r="Z6" s="41"/>
+      <c r="AA6" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="AB5" s="24">
+      <c r="AB6" s="25">
         <v>1.23456789E8</v>
       </c>
-      <c r="AC5" s="39">
-        <v>1500.0</v>
-      </c>
-      <c r="AD5" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="AE5" s="28" t="s">
+      <c r="AC6" s="42">
+        <v>200.0</v>
+      </c>
+      <c r="AD6" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="29"/>
+      <c r="AH6" s="29"/>
+      <c r="AI6" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="AF5" s="28"/>
-      <c r="AG5" s="28"/>
-      <c r="AH5" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI5" s="28"/>
-      <c r="AJ5" s="28"/>
-      <c r="AK5" s="29" t="s">
+      <c r="AJ6" s="29"/>
+      <c r="AK6" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="AL5" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM5" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="AN5" s="29" t="s">
-        <v>119</v>
-      </c>
-      <c r="AO5" s="30" t="s">
+      <c r="AL6" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM6" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="AN6" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="AO6" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="AP5" s="30" t="s">
+      <c r="AP6" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="AQ5" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="AR5" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="AS5" s="41">
-        <v>45338.0</v>
-      </c>
-      <c r="AT5" s="41">
-        <v>45427.0</v>
-      </c>
-      <c r="AU5" s="45" t="s">
+      <c r="AQ6" s="30" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR6" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS6" s="44">
+        <v>38559.0</v>
+      </c>
+      <c r="AT6" s="44">
+        <v>39139.0</v>
+      </c>
+      <c r="AU6" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="AV5" s="41">
-        <v>45397.0</v>
-      </c>
-      <c r="AW5" s="42">
-        <v>45397.0</v>
-      </c>
-    </row>
-    <row r="6" ht="35.25" customHeight="1">
-      <c r="A6" s="18">
-        <v>20.0</v>
-      </c>
-      <c r="B6" s="34">
-        <v>5.251562577E9</v>
-      </c>
-      <c r="C6" s="34">
-        <v>5.251562577E9</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="G6" s="35" t="s">
+      <c r="AV6" s="44">
+        <v>41366.0</v>
+      </c>
+      <c r="AW6" s="45">
+        <v>45558.0</v>
+      </c>
+      <c r="AX6" s="50"/>
+    </row>
+    <row r="7" ht="35.25" customHeight="1">
+      <c r="A7" s="19">
+        <v>21.0</v>
+      </c>
+      <c r="B7" s="35">
+        <v>5.321689568E9</v>
+      </c>
+      <c r="C7" s="36">
+        <v>1.234563218E9</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="H6" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="M6" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="N6" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="O6" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="P6" s="20">
-        <v>9.87654321E8</v>
-      </c>
-      <c r="Q6" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="R6" s="22">
-        <v>1.23456789E8</v>
-      </c>
-      <c r="S6" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="T6" s="46">
-        <v>7.91551013E8</v>
-      </c>
-      <c r="U6" s="38"/>
-      <c r="V6" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="W6" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="X6" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y6" s="22">
-        <v>1.23456789E8</v>
-      </c>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB6" s="24">
-        <v>1.23456789E8</v>
-      </c>
-      <c r="AC6" s="39">
-        <v>200.0</v>
-      </c>
-      <c r="AD6" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE6" s="28"/>
-      <c r="AF6" s="28"/>
-      <c r="AG6" s="28"/>
-      <c r="AH6" s="28"/>
-      <c r="AI6" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ6" s="28"/>
-      <c r="AK6" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL6" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="AM6" s="29" t="s">
-        <v>132</v>
-      </c>
-      <c r="AN6" s="29" t="s">
-        <v>133</v>
-      </c>
-      <c r="AO6" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP6" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ6" s="29" t="s">
-        <v>134</v>
-      </c>
-      <c r="AR6" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="AS6" s="41">
-        <v>38559.0</v>
-      </c>
-      <c r="AT6" s="41">
-        <v>39139.0</v>
-      </c>
-      <c r="AU6" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="AV6" s="41">
-        <v>41366.0</v>
-      </c>
-      <c r="AW6" s="42">
-        <v>45558.0</v>
-      </c>
-      <c r="AX6" s="47"/>
-    </row>
-    <row r="7" ht="35.25" customHeight="1">
-      <c r="A7" s="18">
-        <v>21.0</v>
-      </c>
-      <c r="B7" s="34">
-        <v>5.321689568E9</v>
-      </c>
-      <c r="C7" s="34">
-        <v>5.321689568E9</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="F7" s="17" t="s">
+      <c r="H7" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="G7" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="18" t="s">
+      <c r="I7" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="J7" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="K7" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="L7" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="K7" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="L7" s="18" t="s">
+      <c r="M7" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="M7" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="N7" s="19" t="str">
+      <c r="N7" s="20" t="str">
         <f t="shared" ref="N7:O7" si="4">H7</f>
         <v>Parafia Matki Bożej Królowej Polski w Otwocku</v>
       </c>
-      <c r="O7" s="19" t="str">
+      <c r="O7" s="20" t="str">
         <f t="shared" si="4"/>
         <v>ul. Czerska 21, 05-400 Otwock</v>
       </c>
-      <c r="P7" s="20">
+      <c r="P7" s="21">
         <v>9.87654321E8</v>
       </c>
-      <c r="Q7" s="36" t="s">
+      <c r="Q7" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="R7" s="23">
+        <v>1.23456789E8</v>
+      </c>
+      <c r="S7" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="R7" s="22">
+      <c r="T7" s="40">
+        <v>5.33799658E8</v>
+      </c>
+      <c r="U7" s="41" t="s">
+        <v>143</v>
+      </c>
+      <c r="V7" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="W7" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="X7" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y7" s="23">
         <v>1.23456789E8</v>
       </c>
-      <c r="S7" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="T7" s="37">
-        <v>5.33799658E8</v>
-      </c>
-      <c r="U7" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="V7" s="23" t="s">
+      <c r="Z7" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="W7" s="38" t="s">
+      <c r="AA7" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB7" s="25">
+        <v>1.23456789E8</v>
+      </c>
+      <c r="AC7" s="52">
+        <v>150.0</v>
+      </c>
+      <c r="AD7" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="X7" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y7" s="22">
-        <v>1.23456789E8</v>
-      </c>
-      <c r="Z7" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA7" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB7" s="24">
-        <v>1.23456789E8</v>
-      </c>
-      <c r="AC7" s="49">
-        <v>150.0</v>
-      </c>
-      <c r="AD7" s="50" t="s">
+      <c r="AE7" s="54"/>
+      <c r="AF7" s="54"/>
+      <c r="AG7" s="54"/>
+      <c r="AH7" s="54"/>
+      <c r="AI7" s="55"/>
+      <c r="AJ7" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK7" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="AE7" s="51"/>
-      <c r="AF7" s="51"/>
-      <c r="AG7" s="51"/>
-      <c r="AH7" s="51"/>
-      <c r="AI7" s="52"/>
-      <c r="AJ7" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="AK7" s="29" t="s">
+      <c r="AL7" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="AL7" s="53" t="s">
+      <c r="AM7" s="56" t="s">
         <v>148</v>
       </c>
-      <c r="AM7" s="53" t="s">
+      <c r="AN7" s="56" t="s">
         <v>149</v>
       </c>
-      <c r="AN7" s="53" t="s">
+      <c r="AO7" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="AO7" s="53" t="s">
+      <c r="AP7" s="56" t="s">
+        <v>150</v>
+      </c>
+      <c r="AQ7" s="56" t="s">
         <v>151</v>
       </c>
-      <c r="AP7" s="53" t="s">
-        <v>151</v>
-      </c>
-      <c r="AQ7" s="53" t="s">
+      <c r="AR7" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="AR7" s="31" t="s">
+      <c r="AS7" s="57">
+        <v>45436.0</v>
+      </c>
+      <c r="AT7" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="AS7" s="54">
-        <v>45436.0</v>
-      </c>
-      <c r="AT7" s="54" t="s">
+      <c r="AU7" s="57" t="s">
+        <v>73</v>
+      </c>
+      <c r="AV7" s="57">
+        <v>45450.0</v>
+      </c>
+      <c r="AW7" s="58">
+        <v>45450.0</v>
+      </c>
+      <c r="AX7" s="59" t="s">
         <v>154</v>
       </c>
-      <c r="AU7" s="54" t="s">
-        <v>73</v>
-      </c>
-      <c r="AV7" s="54">
-        <v>45450.0</v>
-      </c>
-      <c r="AW7" s="55">
-        <v>45450.0</v>
-      </c>
-      <c r="AX7" s="56" t="s">
+    </row>
+    <row r="8" ht="35.25" customHeight="1">
+      <c r="A8" s="19">
+        <v>54.0</v>
+      </c>
+      <c r="B8" s="35">
+        <v>5.311691463E9</v>
+      </c>
+      <c r="C8" s="36">
+        <v>1.234563218E9</v>
+      </c>
+      <c r="D8" s="37" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="8" ht="35.25" customHeight="1">
-      <c r="A8" s="18">
-        <v>54.0</v>
-      </c>
-      <c r="B8" s="34">
-        <v>5.311691463E9</v>
-      </c>
-      <c r="C8" s="34">
-        <v>5.311691463E9</v>
-      </c>
-      <c r="D8" s="35" t="s">
+      <c r="E8" s="37" t="s">
         <v>156</v>
       </c>
-      <c r="E8" s="35" t="s">
+      <c r="F8" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="18" t="s">
+      <c r="I8" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="J8" s="19" t="s">
         <v>159</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="K8" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="L8" s="19" t="s">
         <v>161</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="M8" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="M8" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="N8" s="19" t="str">
+      <c r="N8" s="20" t="str">
         <f t="shared" ref="N8:O8" si="5">H8</f>
         <v>FUNDACJA 'A KUKU'</v>
       </c>
-      <c r="O8" s="19" t="str">
+      <c r="O8" s="20" t="str">
         <f t="shared" si="5"/>
         <v>Górki 67, 05-155 Leoncin</v>
       </c>
-      <c r="P8" s="20">
+      <c r="P8" s="21">
         <v>9.87654321E8</v>
       </c>
-      <c r="Q8" s="36" t="s">
+      <c r="Q8" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="R8" s="23">
+        <v>1.23456789E8</v>
+      </c>
+      <c r="S8" s="24"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="W8" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="R8" s="22">
+      <c r="X8" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y8" s="23">
         <v>1.23456789E8</v>
       </c>
-      <c r="S8" s="23"/>
-      <c r="T8" s="38"/>
-      <c r="U8" s="38"/>
-      <c r="V8" s="23" t="s">
+      <c r="Z8" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="W8" s="38" t="s">
+      <c r="AA8" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB8" s="41"/>
+      <c r="AC8" s="60">
+        <v>80.0</v>
+      </c>
+      <c r="AD8" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="X8" s="23" t="s">
+      <c r="AE8" s="29"/>
+      <c r="AF8" s="29"/>
+      <c r="AG8" s="29"/>
+      <c r="AH8" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI8" s="29"/>
+      <c r="AJ8" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK8" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL8" s="30" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM8" s="30"/>
+      <c r="AN8" s="30"/>
+      <c r="AO8" s="30"/>
+      <c r="AP8" s="30"/>
+      <c r="AQ8" s="30"/>
+      <c r="AR8" s="32"/>
+      <c r="AS8" s="44"/>
+      <c r="AT8" s="44"/>
+      <c r="AU8" s="44"/>
+      <c r="AV8" s="48"/>
+      <c r="AW8" s="44">
+        <v>45504.0</v>
+      </c>
+    </row>
+    <row r="9" ht="35.25" customHeight="1">
+      <c r="A9" s="19">
+        <v>59.0</v>
+      </c>
+      <c r="B9" s="35">
+        <v>9.522107635E9</v>
+      </c>
+      <c r="C9" s="36">
+        <v>1.234563218E9</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="47" t="s">
+        <v>169</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="J9" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="L9" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="O9" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="P9" s="21">
+        <v>9.87654321E8</v>
+      </c>
+      <c r="Q9" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="R9" s="23">
+        <v>1.23456789E8</v>
+      </c>
+      <c r="S9" s="24"/>
+      <c r="T9" s="61">
+        <v>6.93904044E8</v>
+      </c>
+      <c r="U9" s="41"/>
+      <c r="V9" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="W9" s="41"/>
+      <c r="X9" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="Y8" s="22">
+      <c r="Y9" s="23">
         <v>1.23456789E8</v>
       </c>
-      <c r="Z8" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA8" s="23" t="s">
+      <c r="Z9" s="41"/>
+      <c r="AA9" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="AB8" s="38"/>
-      <c r="AC8" s="57">
-        <v>80.0</v>
-      </c>
-      <c r="AD8" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE8" s="28"/>
-      <c r="AF8" s="28"/>
-      <c r="AG8" s="28"/>
-      <c r="AH8" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI8" s="28"/>
-      <c r="AJ8" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="AK8" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL8" s="29" t="s">
-        <v>167</v>
-      </c>
-      <c r="AM8" s="29"/>
-      <c r="AN8" s="29"/>
-      <c r="AO8" s="29"/>
-      <c r="AP8" s="29"/>
-      <c r="AQ8" s="29"/>
-      <c r="AR8" s="31"/>
-      <c r="AS8" s="41"/>
-      <c r="AT8" s="41"/>
-      <c r="AU8" s="41"/>
-      <c r="AV8" s="45"/>
-      <c r="AW8" s="41">
-        <v>45504.0</v>
-      </c>
-    </row>
-    <row r="9" ht="35.25" customHeight="1">
-      <c r="A9" s="18">
-        <v>59.0</v>
-      </c>
-      <c r="B9" s="34">
-        <v>9.522107635E9</v>
-      </c>
-      <c r="C9" s="34">
-        <v>9.522107635E9</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="E9" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="H9" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="L9" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="M9" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="N9" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="O9" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="P9" s="20">
-        <v>9.87654321E8</v>
-      </c>
-      <c r="Q9" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="R9" s="22">
-        <v>1.23456789E8</v>
-      </c>
-      <c r="S9" s="23"/>
-      <c r="T9" s="58">
-        <v>6.93904044E8</v>
-      </c>
-      <c r="U9" s="38"/>
-      <c r="V9" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="W9" s="38"/>
-      <c r="X9" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y9" s="22">
-        <v>1.23456789E8</v>
-      </c>
-      <c r="Z9" s="38"/>
-      <c r="AA9" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB9" s="38"/>
-      <c r="AC9" s="59">
+      <c r="AB9" s="41"/>
+      <c r="AC9" s="62">
         <f>15+8+10</f>
         <v>33</v>
       </c>
-      <c r="AD9" s="40" t="s">
+      <c r="AD9" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE9" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF9" s="29"/>
+      <c r="AG9" s="29"/>
+      <c r="AH9" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI9" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ9" s="29"/>
+      <c r="AK9" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL9" s="30" t="s">
         <v>176</v>
       </c>
-      <c r="AE9" s="28" t="s">
+      <c r="AM9" s="30"/>
+      <c r="AN9" s="30"/>
+      <c r="AO9" s="30"/>
+      <c r="AP9" s="30"/>
+      <c r="AQ9" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="AR9" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS9" s="44"/>
+      <c r="AT9" s="44"/>
+      <c r="AU9" s="44"/>
+      <c r="AV9" s="48"/>
+      <c r="AW9" s="45">
+        <v>45344.0</v>
+      </c>
+      <c r="AX9" s="59" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" ht="35.25" customHeight="1">
+      <c r="A10" s="19">
+        <v>59.0</v>
+      </c>
+      <c r="B10" s="35">
+        <v>9.522107635E9</v>
+      </c>
+      <c r="C10" s="36">
+        <v>1.234563218E9</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G10" s="63" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="K10" s="47" t="s">
+        <v>184</v>
+      </c>
+      <c r="L10" s="47" t="s">
+        <v>185</v>
+      </c>
+      <c r="M10" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" s="46" t="s">
+        <v>169</v>
+      </c>
+      <c r="O10" s="46" t="s">
+        <v>173</v>
+      </c>
+      <c r="P10" s="21">
+        <v>9.87654321E8</v>
+      </c>
+      <c r="Q10" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="R10" s="23">
+        <v>1.23456789E8</v>
+      </c>
+      <c r="S10" s="24"/>
+      <c r="T10" s="61">
+        <v>6.93904044E8</v>
+      </c>
+      <c r="U10" s="41"/>
+      <c r="V10" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="W10" s="41"/>
+      <c r="X10" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y10" s="23">
+        <v>1.23456789E8</v>
+      </c>
+      <c r="Z10" s="41"/>
+      <c r="AA10" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB10" s="41"/>
+      <c r="AC10" s="64">
+        <v>18.0</v>
+      </c>
+      <c r="AD10" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE10" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="AF9" s="28"/>
-      <c r="AG9" s="28"/>
-      <c r="AH9" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI9" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ9" s="28"/>
-      <c r="AK9" s="29" t="s">
+      <c r="AF10" s="29"/>
+      <c r="AG10" s="29"/>
+      <c r="AH10" s="29"/>
+      <c r="AI10" s="29"/>
+      <c r="AJ10" s="29"/>
+      <c r="AK10" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="AL9" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="AM9" s="29"/>
-      <c r="AN9" s="29"/>
-      <c r="AO9" s="29"/>
-      <c r="AP9" s="29"/>
-      <c r="AQ9" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="AR9" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="AS9" s="41"/>
-      <c r="AT9" s="41"/>
-      <c r="AU9" s="41"/>
-      <c r="AV9" s="45"/>
-      <c r="AW9" s="42">
+      <c r="AL10" s="30" t="s">
+        <v>176</v>
+      </c>
+      <c r="AM10" s="30"/>
+      <c r="AN10" s="30"/>
+      <c r="AO10" s="30"/>
+      <c r="AP10" s="30"/>
+      <c r="AQ10" s="30"/>
+      <c r="AR10" s="32"/>
+      <c r="AS10" s="44"/>
+      <c r="AT10" s="44"/>
+      <c r="AU10" s="44"/>
+      <c r="AV10" s="48"/>
+      <c r="AW10" s="44">
         <v>45344.0</v>
       </c>
-      <c r="AX9" s="56" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="10" ht="35.25" customHeight="1">
-      <c r="A10" s="18">
-        <v>59.0</v>
-      </c>
-      <c r="B10" s="34">
-        <v>9.522107635E9</v>
-      </c>
-      <c r="C10" s="34">
-        <v>9.522107635E9</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="G10" s="60" t="s">
+    </row>
+    <row r="11" ht="35.25" customHeight="1">
+      <c r="A11" s="19">
+        <v>141.0</v>
+      </c>
+      <c r="B11" s="35">
+        <v>5.252265692E9</v>
+      </c>
+      <c r="C11" s="36">
+        <v>1.234563218E9</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="G11" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="K10" s="44" t="s">
-        <v>183</v>
-      </c>
-      <c r="L10" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="M10" s="44" t="s">
+      <c r="H11" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="J11" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="L11" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="M11" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="N10" s="43" t="s">
-        <v>170</v>
-      </c>
-      <c r="O10" s="43" t="s">
-        <v>174</v>
-      </c>
-      <c r="P10" s="20">
+      <c r="N11" s="46" t="s">
+        <v>189</v>
+      </c>
+      <c r="O11" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="P11" s="21">
         <v>9.87654321E8</v>
       </c>
-      <c r="Q10" s="36" t="s">
-        <v>175</v>
-      </c>
-      <c r="R10" s="22">
+      <c r="Q11" s="22" t="s">
+        <v>194</v>
+      </c>
+      <c r="R11" s="23">
         <v>1.23456789E8</v>
       </c>
-      <c r="S10" s="23"/>
-      <c r="T10" s="58">
-        <v>6.93904044E8</v>
-      </c>
-      <c r="U10" s="38"/>
-      <c r="V10" s="23" t="s">
+      <c r="S11" s="24"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="W10" s="38"/>
-      <c r="X10" s="23" t="s">
+      <c r="W11" s="41"/>
+      <c r="X11" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="Y10" s="22">
+      <c r="Y11" s="23">
         <v>1.23456789E8</v>
       </c>
-      <c r="Z10" s="38"/>
-      <c r="AA10" s="23" t="s">
+      <c r="Z11" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA11" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="AB10" s="38"/>
-      <c r="AC10" s="61">
-        <v>18.0</v>
-      </c>
-      <c r="AD10" s="40" t="s">
-        <v>176</v>
-      </c>
-      <c r="AE10" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF10" s="28"/>
-      <c r="AG10" s="28"/>
-      <c r="AH10" s="28"/>
-      <c r="AI10" s="28"/>
-      <c r="AJ10" s="28"/>
-      <c r="AK10" s="29" t="s">
+      <c r="AB11" s="41"/>
+      <c r="AC11" s="60">
+        <v>40.0</v>
+      </c>
+      <c r="AD11" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE11" s="29"/>
+      <c r="AF11" s="29"/>
+      <c r="AG11" s="29"/>
+      <c r="AH11" s="29"/>
+      <c r="AI11" s="29"/>
+      <c r="AJ11" s="29"/>
+      <c r="AK11" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="AL10" s="29" t="s">
-        <v>177</v>
-      </c>
-      <c r="AM10" s="29"/>
-      <c r="AN10" s="29"/>
-      <c r="AO10" s="29"/>
-      <c r="AP10" s="29"/>
-      <c r="AQ10" s="29"/>
-      <c r="AR10" s="31"/>
-      <c r="AS10" s="41"/>
-      <c r="AT10" s="41"/>
-      <c r="AU10" s="41"/>
-      <c r="AV10" s="45"/>
-      <c r="AW10" s="41">
-        <v>45344.0</v>
-      </c>
-    </row>
-    <row r="11" ht="35.25" customHeight="1">
-      <c r="A11" s="18">
-        <v>141.0</v>
-      </c>
-      <c r="B11" s="34">
+      <c r="AL11" s="30" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM11" s="30"/>
+      <c r="AN11" s="30"/>
+      <c r="AO11" s="30"/>
+      <c r="AP11" s="30"/>
+      <c r="AQ11" s="30"/>
+      <c r="AR11" s="32"/>
+      <c r="AS11" s="48"/>
+      <c r="AT11" s="48"/>
+      <c r="AU11" s="48"/>
+      <c r="AV11" s="48"/>
+      <c r="AW11" s="44">
+        <v>45562.0</v>
+      </c>
+    </row>
+    <row r="12" ht="35.25" customHeight="1">
+      <c r="A12" s="65">
+        <v>145.0</v>
+      </c>
+      <c r="B12" s="66">
         <v>5.252265692E9</v>
       </c>
-      <c r="C11" s="34">
-        <v>5.252265692E9</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>185</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="G11" s="35" t="s">
+      <c r="C12" s="36">
+        <v>1.234563218E9</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="G12" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="H11" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="I11" s="15" t="s">
+      <c r="H12" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="I12" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="K11" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>192</v>
-      </c>
-      <c r="M11" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="N11" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="O11" s="43" t="s">
+      <c r="J12" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="N12" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="P11" s="20">
+      <c r="O12" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="P12" s="21">
         <v>9.87654321E8</v>
       </c>
-      <c r="Q11" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="R11" s="22">
+      <c r="Q12" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="R12" s="23">
         <v>1.23456789E8</v>
       </c>
-      <c r="S11" s="23"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23" t="s">
+      <c r="S12" s="24">
+        <v>6.02860355E8</v>
+      </c>
+      <c r="T12" s="23">
+        <v>6.01335206E8</v>
+      </c>
+      <c r="U12" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="V12" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="W11" s="38"/>
-      <c r="X11" s="23" t="s">
+      <c r="W12" s="41"/>
+      <c r="X12" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="Y11" s="22">
+      <c r="Y12" s="23">
         <v>1.23456789E8</v>
       </c>
-      <c r="Z11" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA11" s="23" t="s">
+      <c r="Z12" s="41"/>
+      <c r="AA12" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="AB11" s="38"/>
-      <c r="AC11" s="57">
-        <v>40.0</v>
-      </c>
-      <c r="AD11" s="40" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE11" s="28"/>
-      <c r="AF11" s="28"/>
-      <c r="AG11" s="28"/>
-      <c r="AH11" s="28"/>
-      <c r="AI11" s="28"/>
-      <c r="AJ11" s="28"/>
-      <c r="AK11" s="29" t="s">
+      <c r="AB12" s="41"/>
+      <c r="AC12" s="60">
+        <v>140.0</v>
+      </c>
+      <c r="AD12" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE12" s="69"/>
+      <c r="AF12" s="69"/>
+      <c r="AG12" s="69"/>
+      <c r="AH12" s="69"/>
+      <c r="AI12" s="69"/>
+      <c r="AJ12" s="69"/>
+      <c r="AK12" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="AL11" s="29" t="s">
-        <v>195</v>
-      </c>
-      <c r="AM11" s="29"/>
-      <c r="AN11" s="29"/>
-      <c r="AO11" s="29"/>
-      <c r="AP11" s="29"/>
-      <c r="AQ11" s="29"/>
-      <c r="AR11" s="31"/>
-      <c r="AS11" s="45"/>
-      <c r="AT11" s="45"/>
-      <c r="AU11" s="45"/>
-      <c r="AV11" s="45"/>
-      <c r="AW11" s="41">
-        <v>45562.0</v>
-      </c>
-    </row>
-    <row r="12" ht="35.25" customHeight="1">
-      <c r="A12" s="62">
-        <v>145.0</v>
-      </c>
-      <c r="B12" s="63">
-        <v>5.252265692E9</v>
-      </c>
-      <c r="C12" s="63">
-        <v>5.252265692E9</v>
-      </c>
-      <c r="D12" s="64" t="s">
+      <c r="AL12" s="70" t="s">
         <v>196</v>
       </c>
-      <c r="E12" s="64" t="s">
-        <v>186</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="G12" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>197</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="N12" s="43" t="s">
-        <v>188</v>
-      </c>
-      <c r="O12" s="43" t="s">
-        <v>189</v>
-      </c>
-      <c r="P12" s="20">
-        <v>9.87654321E8</v>
-      </c>
-      <c r="Q12" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="R12" s="22">
-        <v>1.23456789E8</v>
-      </c>
-      <c r="S12" s="23">
-        <v>6.02860355E8</v>
-      </c>
-      <c r="T12" s="22">
-        <v>6.01335206E8</v>
-      </c>
-      <c r="U12" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="V12" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="W12" s="38"/>
-      <c r="X12" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y12" s="22">
-        <v>1.23456789E8</v>
-      </c>
-      <c r="Z12" s="38"/>
-      <c r="AA12" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB12" s="38"/>
-      <c r="AC12" s="57">
-        <v>140.0</v>
-      </c>
-      <c r="AD12" s="65" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE12" s="66"/>
-      <c r="AF12" s="66"/>
-      <c r="AG12" s="66"/>
-      <c r="AH12" s="66"/>
-      <c r="AI12" s="66"/>
-      <c r="AJ12" s="66"/>
-      <c r="AK12" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL12" s="67" t="s">
-        <v>195</v>
-      </c>
-      <c r="AM12" s="67"/>
-      <c r="AN12" s="67"/>
-      <c r="AO12" s="67"/>
-      <c r="AP12" s="67"/>
-      <c r="AQ12" s="67"/>
-      <c r="AR12" s="31"/>
-      <c r="AS12" s="68"/>
-      <c r="AT12" s="68"/>
-      <c r="AU12" s="68"/>
-      <c r="AV12" s="68"/>
-      <c r="AW12" s="68"/>
+      <c r="AM12" s="70"/>
+      <c r="AN12" s="70"/>
+      <c r="AO12" s="70"/>
+      <c r="AP12" s="70"/>
+      <c r="AQ12" s="70"/>
+      <c r="AR12" s="32"/>
+      <c r="AS12" s="71"/>
+      <c r="AT12" s="71"/>
+      <c r="AU12" s="71"/>
+      <c r="AV12" s="71"/>
+      <c r="AW12" s="71"/>
     </row>
     <row r="13" ht="35.25" customHeight="1">
-      <c r="A13" s="69"/>
-      <c r="R13" s="70"/>
-      <c r="T13" s="70"/>
-      <c r="V13" s="71"/>
-      <c r="Y13" s="70"/>
-      <c r="AC13" s="72">
+      <c r="A13" s="72"/>
+      <c r="R13" s="73"/>
+      <c r="T13" s="73"/>
+      <c r="V13" s="74"/>
+      <c r="Y13" s="73"/>
+      <c r="AC13" s="75">
         <f>SUM(AC2:AC12)</f>
         <v>2435</v>
       </c>
-      <c r="AK13" s="69"/>
-      <c r="AR13" s="73"/>
+      <c r="AK13" s="72"/>
+      <c r="AR13" s="76"/>
     </row>
     <row r="14" ht="35.25" customHeight="1">
-      <c r="A14" s="69"/>
-      <c r="R14" s="70"/>
-      <c r="T14" s="70"/>
-      <c r="V14" s="71"/>
-      <c r="Y14" s="70"/>
-      <c r="AK14" s="69"/>
-      <c r="AR14" s="73"/>
+      <c r="A14" s="72"/>
+      <c r="R14" s="73"/>
+      <c r="T14" s="73"/>
+      <c r="V14" s="74"/>
+      <c r="Y14" s="73"/>
+      <c r="AK14" s="72"/>
+      <c r="AR14" s="76"/>
     </row>
     <row r="15" ht="35.25" customHeight="1">
-      <c r="A15" s="69"/>
-      <c r="R15" s="70"/>
-      <c r="T15" s="70"/>
-      <c r="V15" s="71"/>
-      <c r="Y15" s="70"/>
-      <c r="AK15" s="69"/>
-      <c r="AR15" s="73"/>
+      <c r="A15" s="72"/>
+      <c r="R15" s="73"/>
+      <c r="T15" s="73"/>
+      <c r="V15" s="74"/>
+      <c r="Y15" s="73"/>
+      <c r="AK15" s="72"/>
+      <c r="AR15" s="76"/>
     </row>
     <row r="16" ht="35.25" customHeight="1">
-      <c r="A16" s="69"/>
-      <c r="R16" s="70"/>
-      <c r="T16" s="70"/>
-      <c r="V16" s="71"/>
-      <c r="Y16" s="70"/>
-      <c r="AK16" s="69"/>
-      <c r="AR16" s="73"/>
+      <c r="A16" s="72"/>
+      <c r="R16" s="73"/>
+      <c r="T16" s="73"/>
+      <c r="V16" s="74"/>
+      <c r="Y16" s="73"/>
+      <c r="AK16" s="72"/>
+      <c r="AR16" s="76"/>
     </row>
     <row r="17" ht="35.25" customHeight="1">
-      <c r="A17" s="69"/>
-      <c r="R17" s="70"/>
-      <c r="T17" s="70"/>
-      <c r="V17" s="71"/>
-      <c r="Y17" s="70"/>
-      <c r="AK17" s="69"/>
-      <c r="AR17" s="73"/>
+      <c r="A17" s="72"/>
+      <c r="R17" s="73"/>
+      <c r="T17" s="73"/>
+      <c r="V17" s="74"/>
+      <c r="Y17" s="73"/>
+      <c r="AK17" s="72"/>
+      <c r="AR17" s="76"/>
     </row>
     <row r="18" ht="35.25" customHeight="1">
-      <c r="A18" s="69"/>
-      <c r="R18" s="70"/>
-      <c r="T18" s="70"/>
-      <c r="V18" s="71"/>
-      <c r="Y18" s="70"/>
-      <c r="AK18" s="69"/>
-      <c r="AR18" s="73"/>
+      <c r="A18" s="72"/>
+      <c r="R18" s="73"/>
+      <c r="T18" s="73"/>
+      <c r="V18" s="74"/>
+      <c r="Y18" s="73"/>
+      <c r="AK18" s="72"/>
+      <c r="AR18" s="76"/>
     </row>
     <row r="19" ht="35.25" customHeight="1">
-      <c r="A19" s="69"/>
-      <c r="R19" s="70"/>
-      <c r="T19" s="70"/>
-      <c r="V19" s="71"/>
-      <c r="Y19" s="70"/>
-      <c r="AK19" s="69"/>
-      <c r="AR19" s="73"/>
+      <c r="A19" s="72"/>
+      <c r="R19" s="73"/>
+      <c r="T19" s="73"/>
+      <c r="V19" s="74"/>
+      <c r="Y19" s="73"/>
+      <c r="AK19" s="72"/>
+      <c r="AR19" s="76"/>
     </row>
     <row r="20" ht="35.25" customHeight="1">
-      <c r="A20" s="69"/>
-      <c r="R20" s="70"/>
-      <c r="T20" s="70"/>
-      <c r="V20" s="71"/>
-      <c r="Y20" s="70"/>
-      <c r="AK20" s="69"/>
-      <c r="AR20" s="73"/>
+      <c r="A20" s="72"/>
+      <c r="R20" s="73"/>
+      <c r="T20" s="73"/>
+      <c r="V20" s="74"/>
+      <c r="Y20" s="73"/>
+      <c r="AK20" s="72"/>
+      <c r="AR20" s="76"/>
     </row>
     <row r="21" ht="35.25" customHeight="1">
-      <c r="A21" s="69"/>
-      <c r="R21" s="70"/>
-      <c r="T21" s="70"/>
-      <c r="V21" s="71"/>
-      <c r="Y21" s="70"/>
-      <c r="AK21" s="69"/>
-      <c r="AR21" s="73"/>
+      <c r="A21" s="72"/>
+      <c r="R21" s="73"/>
+      <c r="T21" s="73"/>
+      <c r="V21" s="74"/>
+      <c r="Y21" s="73"/>
+      <c r="AK21" s="72"/>
+      <c r="AR21" s="76"/>
     </row>
     <row r="22" ht="35.25" customHeight="1">
-      <c r="A22" s="69"/>
-      <c r="R22" s="70"/>
-      <c r="T22" s="70"/>
-      <c r="V22" s="71"/>
-      <c r="Y22" s="70"/>
-      <c r="AK22" s="69"/>
-      <c r="AR22" s="73"/>
+      <c r="A22" s="72"/>
+      <c r="R22" s="73"/>
+      <c r="T22" s="73"/>
+      <c r="V22" s="74"/>
+      <c r="Y22" s="73"/>
+      <c r="AK22" s="72"/>
+      <c r="AR22" s="76"/>
     </row>
     <row r="23" ht="35.25" customHeight="1">
-      <c r="A23" s="69"/>
-      <c r="R23" s="70"/>
-      <c r="T23" s="70"/>
-      <c r="V23" s="71"/>
-      <c r="Y23" s="70"/>
-      <c r="AK23" s="69"/>
-      <c r="AR23" s="73"/>
+      <c r="A23" s="72"/>
+      <c r="R23" s="73"/>
+      <c r="T23" s="73"/>
+      <c r="V23" s="74"/>
+      <c r="Y23" s="73"/>
+      <c r="AK23" s="72"/>
+      <c r="AR23" s="76"/>
     </row>
     <row r="24" ht="35.25" customHeight="1">
-      <c r="A24" s="69"/>
-      <c r="R24" s="70"/>
-      <c r="T24" s="70"/>
-      <c r="V24" s="71"/>
-      <c r="Y24" s="70"/>
-      <c r="AK24" s="69"/>
-      <c r="AR24" s="73"/>
+      <c r="A24" s="72"/>
+      <c r="R24" s="73"/>
+      <c r="T24" s="73"/>
+      <c r="V24" s="74"/>
+      <c r="Y24" s="73"/>
+      <c r="AK24" s="72"/>
+      <c r="AR24" s="76"/>
     </row>
     <row r="25" ht="35.25" customHeight="1">
-      <c r="A25" s="69"/>
-      <c r="R25" s="70"/>
-      <c r="T25" s="70"/>
-      <c r="V25" s="71"/>
-      <c r="Y25" s="70"/>
-      <c r="AK25" s="69"/>
-      <c r="AR25" s="73"/>
+      <c r="A25" s="72"/>
+      <c r="R25" s="73"/>
+      <c r="T25" s="73"/>
+      <c r="V25" s="74"/>
+      <c r="Y25" s="73"/>
+      <c r="AK25" s="72"/>
+      <c r="AR25" s="76"/>
     </row>
     <row r="26" ht="35.25" customHeight="1">
-      <c r="A26" s="69"/>
-      <c r="R26" s="70"/>
-      <c r="T26" s="70"/>
-      <c r="V26" s="71"/>
-      <c r="Y26" s="70"/>
-      <c r="AK26" s="69"/>
-      <c r="AR26" s="73"/>
+      <c r="A26" s="72"/>
+      <c r="R26" s="73"/>
+      <c r="T26" s="73"/>
+      <c r="V26" s="74"/>
+      <c r="Y26" s="73"/>
+      <c r="AK26" s="72"/>
+      <c r="AR26" s="76"/>
     </row>
     <row r="27" ht="35.25" customHeight="1">
-      <c r="A27" s="69"/>
-      <c r="R27" s="70"/>
-      <c r="T27" s="70"/>
-      <c r="V27" s="71"/>
-      <c r="Y27" s="70"/>
-      <c r="AK27" s="69"/>
-      <c r="AR27" s="73"/>
+      <c r="A27" s="72"/>
+      <c r="R27" s="73"/>
+      <c r="T27" s="73"/>
+      <c r="V27" s="74"/>
+      <c r="Y27" s="73"/>
+      <c r="AK27" s="72"/>
+      <c r="AR27" s="76"/>
     </row>
     <row r="28" ht="35.25" customHeight="1">
-      <c r="A28" s="69"/>
-      <c r="R28" s="70"/>
-      <c r="T28" s="70"/>
-      <c r="V28" s="71"/>
-      <c r="Y28" s="70"/>
-      <c r="AK28" s="69"/>
-      <c r="AR28" s="73"/>
+      <c r="A28" s="72"/>
+      <c r="R28" s="73"/>
+      <c r="T28" s="73"/>
+      <c r="V28" s="74"/>
+      <c r="Y28" s="73"/>
+      <c r="AK28" s="72"/>
+      <c r="AR28" s="76"/>
     </row>
     <row r="29" ht="35.25" customHeight="1">
-      <c r="A29" s="69"/>
-      <c r="R29" s="70"/>
-      <c r="T29" s="70"/>
-      <c r="V29" s="71"/>
-      <c r="Y29" s="70"/>
-      <c r="AK29" s="69"/>
-      <c r="AR29" s="73"/>
+      <c r="A29" s="72"/>
+      <c r="R29" s="73"/>
+      <c r="T29" s="73"/>
+      <c r="V29" s="74"/>
+      <c r="Y29" s="73"/>
+      <c r="AK29" s="72"/>
+      <c r="AR29" s="76"/>
     </row>
     <row r="30" ht="35.25" customHeight="1">
-      <c r="A30" s="69"/>
-      <c r="R30" s="70"/>
-      <c r="T30" s="70"/>
-      <c r="V30" s="71"/>
-      <c r="Y30" s="70"/>
-      <c r="AK30" s="69"/>
-      <c r="AR30" s="73"/>
+      <c r="A30" s="72"/>
+      <c r="R30" s="73"/>
+      <c r="T30" s="73"/>
+      <c r="V30" s="74"/>
+      <c r="Y30" s="73"/>
+      <c r="AK30" s="72"/>
+      <c r="AR30" s="76"/>
     </row>
     <row r="31" ht="35.25" customHeight="1">
-      <c r="A31" s="69"/>
-      <c r="R31" s="70"/>
-      <c r="T31" s="70"/>
-      <c r="V31" s="71"/>
-      <c r="Y31" s="70"/>
-      <c r="AK31" s="69"/>
-      <c r="AR31" s="73"/>
+      <c r="A31" s="72"/>
+      <c r="R31" s="73"/>
+      <c r="T31" s="73"/>
+      <c r="V31" s="74"/>
+      <c r="Y31" s="73"/>
+      <c r="AK31" s="72"/>
+      <c r="AR31" s="76"/>
     </row>
     <row r="32" ht="35.25" customHeight="1">
-      <c r="A32" s="69"/>
-      <c r="R32" s="70"/>
-      <c r="T32" s="70"/>
-      <c r="V32" s="71"/>
-      <c r="Y32" s="70"/>
-      <c r="AK32" s="69"/>
-      <c r="AR32" s="73"/>
+      <c r="A32" s="72"/>
+      <c r="R32" s="73"/>
+      <c r="T32" s="73"/>
+      <c r="V32" s="74"/>
+      <c r="Y32" s="73"/>
+      <c r="AK32" s="72"/>
+      <c r="AR32" s="76"/>
     </row>
     <row r="33" ht="35.25" customHeight="1">
-      <c r="A33" s="69"/>
-      <c r="R33" s="70"/>
-      <c r="T33" s="70"/>
-      <c r="V33" s="71"/>
-      <c r="Y33" s="70"/>
-      <c r="AK33" s="69"/>
-      <c r="AR33" s="73"/>
+      <c r="A33" s="72"/>
+      <c r="R33" s="73"/>
+      <c r="T33" s="73"/>
+      <c r="V33" s="74"/>
+      <c r="Y33" s="73"/>
+      <c r="AK33" s="72"/>
+      <c r="AR33" s="76"/>
     </row>
     <row r="34" ht="35.25" customHeight="1">
-      <c r="A34" s="69"/>
-      <c r="R34" s="70"/>
-      <c r="T34" s="70"/>
-      <c r="V34" s="71"/>
-      <c r="Y34" s="70"/>
-      <c r="AK34" s="69"/>
-      <c r="AR34" s="73"/>
+      <c r="A34" s="72"/>
+      <c r="R34" s="73"/>
+      <c r="T34" s="73"/>
+      <c r="V34" s="74"/>
+      <c r="Y34" s="73"/>
+      <c r="AK34" s="72"/>
+      <c r="AR34" s="76"/>
     </row>
     <row r="35" ht="35.25" customHeight="1">
-      <c r="A35" s="69"/>
-      <c r="R35" s="70"/>
-      <c r="T35" s="70"/>
-      <c r="V35" s="71"/>
-      <c r="Y35" s="70"/>
-      <c r="AK35" s="69"/>
-      <c r="AR35" s="73"/>
+      <c r="A35" s="72"/>
+      <c r="R35" s="73"/>
+      <c r="T35" s="73"/>
+      <c r="V35" s="74"/>
+      <c r="Y35" s="73"/>
+      <c r="AK35" s="72"/>
+      <c r="AR35" s="76"/>
     </row>
     <row r="36" ht="35.25" customHeight="1">
-      <c r="A36" s="69"/>
-      <c r="R36" s="70"/>
-      <c r="T36" s="70"/>
-      <c r="V36" s="71"/>
-      <c r="Y36" s="70"/>
-      <c r="AK36" s="69"/>
-      <c r="AR36" s="73"/>
+      <c r="A36" s="72"/>
+      <c r="R36" s="73"/>
+      <c r="T36" s="73"/>
+      <c r="V36" s="74"/>
+      <c r="Y36" s="73"/>
+      <c r="AK36" s="72"/>
+      <c r="AR36" s="76"/>
     </row>
     <row r="37" ht="35.25" customHeight="1">
-      <c r="A37" s="69"/>
-      <c r="R37" s="70"/>
-      <c r="T37" s="70"/>
-      <c r="V37" s="71"/>
-      <c r="Y37" s="70"/>
-      <c r="AK37" s="69"/>
-      <c r="AR37" s="73"/>
+      <c r="A37" s="72"/>
+      <c r="R37" s="73"/>
+      <c r="T37" s="73"/>
+      <c r="V37" s="74"/>
+      <c r="Y37" s="73"/>
+      <c r="AK37" s="72"/>
+      <c r="AR37" s="76"/>
     </row>
     <row r="38" ht="35.25" customHeight="1">
-      <c r="A38" s="69"/>
-      <c r="R38" s="70"/>
-      <c r="T38" s="70"/>
-      <c r="V38" s="71"/>
-      <c r="Y38" s="70"/>
-      <c r="AK38" s="69"/>
-      <c r="AR38" s="73"/>
+      <c r="A38" s="72"/>
+      <c r="R38" s="73"/>
+      <c r="T38" s="73"/>
+      <c r="V38" s="74"/>
+      <c r="Y38" s="73"/>
+      <c r="AK38" s="72"/>
+      <c r="AR38" s="76"/>
     </row>
     <row r="39" ht="35.25" customHeight="1">
-      <c r="A39" s="69"/>
-      <c r="R39" s="70"/>
-      <c r="T39" s="70"/>
-      <c r="V39" s="71"/>
-      <c r="Y39" s="70"/>
-      <c r="AK39" s="69"/>
-      <c r="AR39" s="73"/>
+      <c r="A39" s="72"/>
+      <c r="R39" s="73"/>
+      <c r="T39" s="73"/>
+      <c r="V39" s="74"/>
+      <c r="Y39" s="73"/>
+      <c r="AK39" s="72"/>
+      <c r="AR39" s="76"/>
     </row>
     <row r="40" ht="35.25" customHeight="1">
-      <c r="A40" s="69"/>
-      <c r="R40" s="70"/>
-      <c r="T40" s="70"/>
-      <c r="V40" s="71"/>
-      <c r="Y40" s="70"/>
-      <c r="AK40" s="69"/>
-      <c r="AR40" s="73"/>
+      <c r="A40" s="72"/>
+      <c r="R40" s="73"/>
+      <c r="T40" s="73"/>
+      <c r="V40" s="74"/>
+      <c r="Y40" s="73"/>
+      <c r="AK40" s="72"/>
+      <c r="AR40" s="76"/>
     </row>
     <row r="41" ht="35.25" customHeight="1">
-      <c r="A41" s="69"/>
-      <c r="R41" s="70"/>
-      <c r="T41" s="70"/>
-      <c r="V41" s="71"/>
-      <c r="Y41" s="70"/>
-      <c r="AK41" s="69"/>
-      <c r="AR41" s="73"/>
+      <c r="A41" s="72"/>
+      <c r="R41" s="73"/>
+      <c r="T41" s="73"/>
+      <c r="V41" s="74"/>
+      <c r="Y41" s="73"/>
+      <c r="AK41" s="72"/>
+      <c r="AR41" s="76"/>
     </row>
     <row r="42" ht="35.25" customHeight="1">
-      <c r="A42" s="69"/>
-      <c r="R42" s="70"/>
-      <c r="T42" s="70"/>
-      <c r="V42" s="71"/>
-      <c r="Y42" s="70"/>
-      <c r="AK42" s="69"/>
-      <c r="AR42" s="73"/>
+      <c r="A42" s="72"/>
+      <c r="R42" s="73"/>
+      <c r="T42" s="73"/>
+      <c r="V42" s="74"/>
+      <c r="Y42" s="73"/>
+      <c r="AK42" s="72"/>
+      <c r="AR42" s="76"/>
     </row>
     <row r="43" ht="35.25" customHeight="1">
-      <c r="A43" s="69"/>
-      <c r="R43" s="70"/>
-      <c r="T43" s="70"/>
-      <c r="V43" s="71"/>
-      <c r="Y43" s="70"/>
-      <c r="AK43" s="69"/>
-      <c r="AR43" s="73"/>
+      <c r="A43" s="72"/>
+      <c r="R43" s="73"/>
+      <c r="T43" s="73"/>
+      <c r="V43" s="74"/>
+      <c r="Y43" s="73"/>
+      <c r="AK43" s="72"/>
+      <c r="AR43" s="76"/>
     </row>
     <row r="44" ht="35.25" customHeight="1">
-      <c r="A44" s="69"/>
-      <c r="R44" s="70"/>
-      <c r="T44" s="70"/>
-      <c r="V44" s="71"/>
-      <c r="Y44" s="70"/>
-      <c r="AK44" s="69"/>
-      <c r="AR44" s="73"/>
+      <c r="A44" s="72"/>
+      <c r="R44" s="73"/>
+      <c r="T44" s="73"/>
+      <c r="V44" s="74"/>
+      <c r="Y44" s="73"/>
+      <c r="AK44" s="72"/>
+      <c r="AR44" s="76"/>
     </row>
     <row r="45" ht="35.25" customHeight="1">
-      <c r="A45" s="69"/>
-      <c r="R45" s="70"/>
-      <c r="T45" s="70"/>
-      <c r="V45" s="71"/>
-      <c r="Y45" s="70"/>
-      <c r="AK45" s="69"/>
-      <c r="AR45" s="73"/>
+      <c r="A45" s="72"/>
+      <c r="R45" s="73"/>
+      <c r="T45" s="73"/>
+      <c r="V45" s="74"/>
+      <c r="Y45" s="73"/>
+      <c r="AK45" s="72"/>
+      <c r="AR45" s="76"/>
     </row>
     <row r="46" ht="35.25" customHeight="1">
-      <c r="A46" s="69"/>
-      <c r="R46" s="70"/>
-      <c r="T46" s="70"/>
-      <c r="V46" s="71"/>
-      <c r="Y46" s="70"/>
-      <c r="AK46" s="69"/>
-      <c r="AR46" s="73"/>
+      <c r="A46" s="72"/>
+      <c r="R46" s="73"/>
+      <c r="T46" s="73"/>
+      <c r="V46" s="74"/>
+      <c r="Y46" s="73"/>
+      <c r="AK46" s="72"/>
+      <c r="AR46" s="76"/>
     </row>
     <row r="47" ht="35.25" customHeight="1">
-      <c r="A47" s="69"/>
-      <c r="R47" s="70"/>
-      <c r="T47" s="70"/>
-      <c r="V47" s="71"/>
-      <c r="Y47" s="70"/>
-      <c r="AK47" s="69"/>
-      <c r="AR47" s="73"/>
+      <c r="A47" s="72"/>
+      <c r="R47" s="73"/>
+      <c r="T47" s="73"/>
+      <c r="V47" s="74"/>
+      <c r="Y47" s="73"/>
+      <c r="AK47" s="72"/>
+      <c r="AR47" s="76"/>
     </row>
     <row r="48" ht="35.25" customHeight="1">
-      <c r="A48" s="69"/>
-      <c r="R48" s="70"/>
-      <c r="T48" s="70"/>
-      <c r="V48" s="71"/>
-      <c r="Y48" s="70"/>
-      <c r="AK48" s="69"/>
-      <c r="AR48" s="73"/>
+      <c r="A48" s="72"/>
+      <c r="R48" s="73"/>
+      <c r="T48" s="73"/>
+      <c r="V48" s="74"/>
+      <c r="Y48" s="73"/>
+      <c r="AK48" s="72"/>
+      <c r="AR48" s="76"/>
     </row>
     <row r="49" ht="35.25" customHeight="1">
-      <c r="A49" s="69"/>
-      <c r="R49" s="70"/>
-      <c r="T49" s="70"/>
-      <c r="V49" s="71"/>
-      <c r="Y49" s="70"/>
-      <c r="AK49" s="69"/>
-      <c r="AR49" s="73"/>
+      <c r="A49" s="72"/>
+      <c r="R49" s="73"/>
+      <c r="T49" s="73"/>
+      <c r="V49" s="74"/>
+      <c r="Y49" s="73"/>
+      <c r="AK49" s="72"/>
+      <c r="AR49" s="76"/>
     </row>
     <row r="50" ht="35.25" customHeight="1">
-      <c r="A50" s="69"/>
-      <c r="R50" s="70"/>
-      <c r="T50" s="70"/>
-      <c r="V50" s="71"/>
-      <c r="Y50" s="70"/>
-      <c r="AK50" s="69"/>
-      <c r="AR50" s="73"/>
+      <c r="A50" s="72"/>
+      <c r="R50" s="73"/>
+      <c r="T50" s="73"/>
+      <c r="V50" s="74"/>
+      <c r="Y50" s="73"/>
+      <c r="AK50" s="72"/>
+      <c r="AR50" s="76"/>
     </row>
     <row r="51" ht="35.25" customHeight="1">
-      <c r="A51" s="69"/>
-      <c r="R51" s="70"/>
-      <c r="T51" s="70"/>
-      <c r="V51" s="71"/>
-      <c r="Y51" s="70"/>
-      <c r="AK51" s="69"/>
-      <c r="AR51" s="73"/>
+      <c r="A51" s="72"/>
+      <c r="R51" s="73"/>
+      <c r="T51" s="73"/>
+      <c r="V51" s="74"/>
+      <c r="Y51" s="73"/>
+      <c r="AK51" s="72"/>
+      <c r="AR51" s="76"/>
     </row>
     <row r="52" ht="35.25" customHeight="1">
-      <c r="A52" s="69"/>
-      <c r="R52" s="70"/>
-      <c r="T52" s="70"/>
-      <c r="V52" s="71"/>
-      <c r="Y52" s="70"/>
-      <c r="AK52" s="69"/>
-      <c r="AR52" s="73"/>
+      <c r="A52" s="72"/>
+      <c r="R52" s="73"/>
+      <c r="T52" s="73"/>
+      <c r="V52" s="74"/>
+      <c r="Y52" s="73"/>
+      <c r="AK52" s="72"/>
+      <c r="AR52" s="76"/>
     </row>
     <row r="53" ht="35.25" customHeight="1">
-      <c r="A53" s="69"/>
-      <c r="R53" s="70"/>
-      <c r="T53" s="70"/>
-      <c r="V53" s="71"/>
-      <c r="Y53" s="70"/>
-      <c r="AK53" s="69"/>
-      <c r="AR53" s="73"/>
+      <c r="A53" s="72"/>
+      <c r="R53" s="73"/>
+      <c r="T53" s="73"/>
+      <c r="V53" s="74"/>
+      <c r="Y53" s="73"/>
+      <c r="AK53" s="72"/>
+      <c r="AR53" s="76"/>
     </row>
     <row r="54" ht="35.25" customHeight="1">
-      <c r="A54" s="69"/>
-      <c r="R54" s="70"/>
-      <c r="T54" s="70"/>
-      <c r="V54" s="71"/>
-      <c r="Y54" s="70"/>
-      <c r="AK54" s="69"/>
-      <c r="AR54" s="73"/>
+      <c r="A54" s="72"/>
+      <c r="R54" s="73"/>
+      <c r="T54" s="73"/>
+      <c r="V54" s="74"/>
+      <c r="Y54" s="73"/>
+      <c r="AK54" s="72"/>
+      <c r="AR54" s="76"/>
     </row>
     <row r="55" ht="35.25" customHeight="1">
-      <c r="A55" s="69"/>
-      <c r="R55" s="70"/>
-      <c r="T55" s="70"/>
-      <c r="V55" s="71"/>
-      <c r="Y55" s="70"/>
-      <c r="AK55" s="69"/>
-      <c r="AR55" s="73"/>
+      <c r="A55" s="72"/>
+      <c r="R55" s="73"/>
+      <c r="T55" s="73"/>
+      <c r="V55" s="74"/>
+      <c r="Y55" s="73"/>
+      <c r="AK55" s="72"/>
+      <c r="AR55" s="76"/>
     </row>
     <row r="56" ht="35.25" customHeight="1">
-      <c r="A56" s="69"/>
-      <c r="R56" s="70"/>
-      <c r="T56" s="70"/>
-      <c r="V56" s="71"/>
-      <c r="Y56" s="70"/>
-      <c r="AK56" s="69"/>
-      <c r="AR56" s="73"/>
+      <c r="A56" s="72"/>
+      <c r="R56" s="73"/>
+      <c r="T56" s="73"/>
+      <c r="V56" s="74"/>
+      <c r="Y56" s="73"/>
+      <c r="AK56" s="72"/>
+      <c r="AR56" s="76"/>
     </row>
     <row r="57" ht="35.25" customHeight="1">
-      <c r="A57" s="69"/>
-      <c r="R57" s="70"/>
-      <c r="T57" s="70"/>
-      <c r="V57" s="71"/>
-      <c r="Y57" s="70"/>
-      <c r="AK57" s="69"/>
-      <c r="AR57" s="73"/>
+      <c r="A57" s="72"/>
+      <c r="R57" s="73"/>
+      <c r="T57" s="73"/>
+      <c r="V57" s="74"/>
+      <c r="Y57" s="73"/>
+      <c r="AK57" s="72"/>
+      <c r="AR57" s="76"/>
     </row>
     <row r="58" ht="35.25" customHeight="1">
-      <c r="A58" s="69"/>
-      <c r="R58" s="70"/>
-      <c r="T58" s="70"/>
-      <c r="V58" s="71"/>
-      <c r="Y58" s="70"/>
-      <c r="AK58" s="69"/>
-      <c r="AR58" s="73"/>
+      <c r="A58" s="72"/>
+      <c r="R58" s="73"/>
+      <c r="T58" s="73"/>
+      <c r="V58" s="74"/>
+      <c r="Y58" s="73"/>
+      <c r="AK58" s="72"/>
+      <c r="AR58" s="76"/>
     </row>
     <row r="59" ht="35.25" customHeight="1">
-      <c r="A59" s="69"/>
-      <c r="R59" s="70"/>
-      <c r="T59" s="70"/>
-      <c r="V59" s="71"/>
-      <c r="Y59" s="70"/>
-      <c r="AK59" s="69"/>
-      <c r="AR59" s="73"/>
+      <c r="A59" s="72"/>
+      <c r="R59" s="73"/>
+      <c r="T59" s="73"/>
+      <c r="V59" s="74"/>
+      <c r="Y59" s="73"/>
+      <c r="AK59" s="72"/>
+      <c r="AR59" s="76"/>
     </row>
     <row r="60" ht="35.25" customHeight="1">
-      <c r="A60" s="69"/>
-      <c r="R60" s="70"/>
-      <c r="T60" s="70"/>
-      <c r="V60" s="71"/>
-      <c r="Y60" s="70"/>
-      <c r="AK60" s="69"/>
-      <c r="AR60" s="73"/>
+      <c r="A60" s="72"/>
+      <c r="R60" s="73"/>
+      <c r="T60" s="73"/>
+      <c r="V60" s="74"/>
+      <c r="Y60" s="73"/>
+      <c r="AK60" s="72"/>
+      <c r="AR60" s="76"/>
     </row>
     <row r="61" ht="35.25" customHeight="1">
-      <c r="A61" s="69"/>
-      <c r="R61" s="70"/>
-      <c r="T61" s="70"/>
-      <c r="V61" s="71"/>
-      <c r="Y61" s="70"/>
-      <c r="AK61" s="69"/>
-      <c r="AR61" s="73"/>
+      <c r="A61" s="72"/>
+      <c r="R61" s="73"/>
+      <c r="T61" s="73"/>
+      <c r="V61" s="74"/>
+      <c r="Y61" s="73"/>
+      <c r="AK61" s="72"/>
+      <c r="AR61" s="76"/>
     </row>
     <row r="62" ht="35.25" customHeight="1">
-      <c r="A62" s="69"/>
-      <c r="R62" s="70"/>
-      <c r="T62" s="70"/>
-      <c r="V62" s="71"/>
-      <c r="Y62" s="70"/>
-      <c r="AK62" s="69"/>
-      <c r="AR62" s="73"/>
+      <c r="A62" s="72"/>
+      <c r="R62" s="73"/>
+      <c r="T62" s="73"/>
+      <c r="V62" s="74"/>
+      <c r="Y62" s="73"/>
+      <c r="AK62" s="72"/>
+      <c r="AR62" s="76"/>
     </row>
     <row r="63" ht="35.25" customHeight="1">
-      <c r="A63" s="69"/>
-      <c r="R63" s="70"/>
-      <c r="T63" s="70"/>
-      <c r="V63" s="71"/>
-      <c r="Y63" s="70"/>
-      <c r="AK63" s="69"/>
-      <c r="AR63" s="73"/>
+      <c r="A63" s="72"/>
+      <c r="R63" s="73"/>
+      <c r="T63" s="73"/>
+      <c r="V63" s="74"/>
+      <c r="Y63" s="73"/>
+      <c r="AK63" s="72"/>
+      <c r="AR63" s="76"/>
     </row>
     <row r="64" ht="35.25" customHeight="1">
-      <c r="A64" s="69"/>
-      <c r="R64" s="70"/>
-      <c r="T64" s="70"/>
-      <c r="V64" s="71"/>
-      <c r="Y64" s="70"/>
-      <c r="AK64" s="69"/>
-      <c r="AR64" s="73"/>
+      <c r="A64" s="72"/>
+      <c r="R64" s="73"/>
+      <c r="T64" s="73"/>
+      <c r="V64" s="74"/>
+      <c r="Y64" s="73"/>
+      <c r="AK64" s="72"/>
+      <c r="AR64" s="76"/>
     </row>
     <row r="65" ht="35.25" customHeight="1">
-      <c r="A65" s="69"/>
-      <c r="R65" s="70"/>
-      <c r="T65" s="70"/>
-      <c r="V65" s="71"/>
-      <c r="Y65" s="70"/>
-      <c r="AK65" s="69"/>
-      <c r="AR65" s="73"/>
+      <c r="A65" s="72"/>
+      <c r="R65" s="73"/>
+      <c r="T65" s="73"/>
+      <c r="V65" s="74"/>
+      <c r="Y65" s="73"/>
+      <c r="AK65" s="72"/>
+      <c r="AR65" s="76"/>
     </row>
     <row r="66" ht="35.25" customHeight="1">
-      <c r="A66" s="69"/>
-      <c r="R66" s="70"/>
-      <c r="T66" s="70"/>
-      <c r="V66" s="71"/>
-      <c r="Y66" s="70"/>
-      <c r="AK66" s="69"/>
-      <c r="AR66" s="73"/>
+      <c r="A66" s="72"/>
+      <c r="R66" s="73"/>
+      <c r="T66" s="73"/>
+      <c r="V66" s="74"/>
+      <c r="Y66" s="73"/>
+      <c r="AK66" s="72"/>
+      <c r="AR66" s="76"/>
     </row>
     <row r="67" ht="35.25" customHeight="1">
-      <c r="A67" s="69"/>
-      <c r="R67" s="70"/>
-      <c r="T67" s="70"/>
-      <c r="V67" s="71"/>
-      <c r="Y67" s="70"/>
-      <c r="AK67" s="69"/>
-      <c r="AR67" s="73"/>
+      <c r="A67" s="72"/>
+      <c r="R67" s="73"/>
+      <c r="T67" s="73"/>
+      <c r="V67" s="74"/>
+      <c r="Y67" s="73"/>
+      <c r="AK67" s="72"/>
+      <c r="AR67" s="76"/>
     </row>
     <row r="68" ht="35.25" customHeight="1">
-      <c r="A68" s="69"/>
-      <c r="R68" s="70"/>
-      <c r="T68" s="70"/>
-      <c r="V68" s="71"/>
-      <c r="Y68" s="70"/>
-      <c r="AK68" s="69"/>
-      <c r="AR68" s="73"/>
+      <c r="A68" s="72"/>
+      <c r="R68" s="73"/>
+      <c r="T68" s="73"/>
+      <c r="V68" s="74"/>
+      <c r="Y68" s="73"/>
+      <c r="AK68" s="72"/>
+      <c r="AR68" s="76"/>
     </row>
     <row r="69" ht="35.25" customHeight="1">
-      <c r="A69" s="69"/>
-      <c r="R69" s="70"/>
-      <c r="T69" s="70"/>
-      <c r="V69" s="71"/>
-      <c r="Y69" s="70"/>
-      <c r="AK69" s="69"/>
-      <c r="AR69" s="73"/>
+      <c r="A69" s="72"/>
+      <c r="R69" s="73"/>
+      <c r="T69" s="73"/>
+      <c r="V69" s="74"/>
+      <c r="Y69" s="73"/>
+      <c r="AK69" s="72"/>
+      <c r="AR69" s="76"/>
     </row>
     <row r="70" ht="35.25" customHeight="1">
-      <c r="A70" s="69"/>
-      <c r="R70" s="70"/>
-      <c r="T70" s="70"/>
-      <c r="V70" s="71"/>
-      <c r="Y70" s="70"/>
-      <c r="AK70" s="69"/>
-      <c r="AR70" s="73"/>
+      <c r="A70" s="72"/>
+      <c r="R70" s="73"/>
+      <c r="T70" s="73"/>
+      <c r="V70" s="74"/>
+      <c r="Y70" s="73"/>
+      <c r="AK70" s="72"/>
+      <c r="AR70" s="76"/>
     </row>
     <row r="71" ht="35.25" customHeight="1">
-      <c r="A71" s="69"/>
-      <c r="R71" s="70"/>
-      <c r="T71" s="70"/>
-      <c r="V71" s="71"/>
-      <c r="Y71" s="70"/>
-      <c r="AK71" s="69"/>
-      <c r="AR71" s="73"/>
+      <c r="A71" s="72"/>
+      <c r="R71" s="73"/>
+      <c r="T71" s="73"/>
+      <c r="V71" s="74"/>
+      <c r="Y71" s="73"/>
+      <c r="AK71" s="72"/>
+      <c r="AR71" s="76"/>
     </row>
     <row r="72" ht="35.25" customHeight="1">
-      <c r="A72" s="69"/>
-      <c r="R72" s="70"/>
-      <c r="T72" s="70"/>
-      <c r="V72" s="71"/>
-      <c r="Y72" s="70"/>
-      <c r="AK72" s="69"/>
-      <c r="AR72" s="73"/>
+      <c r="A72" s="72"/>
+      <c r="R72" s="73"/>
+      <c r="T72" s="73"/>
+      <c r="V72" s="74"/>
+      <c r="Y72" s="73"/>
+      <c r="AK72" s="72"/>
+      <c r="AR72" s="76"/>
     </row>
     <row r="73" ht="35.25" customHeight="1">
-      <c r="A73" s="69"/>
-      <c r="R73" s="70"/>
-      <c r="T73" s="70"/>
-      <c r="V73" s="71"/>
-      <c r="Y73" s="70"/>
-      <c r="AK73" s="69"/>
-      <c r="AR73" s="73"/>
+      <c r="A73" s="72"/>
+      <c r="R73" s="73"/>
+      <c r="T73" s="73"/>
+      <c r="V73" s="74"/>
+      <c r="Y73" s="73"/>
+      <c r="AK73" s="72"/>
+      <c r="AR73" s="76"/>
     </row>
     <row r="74" ht="35.25" customHeight="1">
-      <c r="A74" s="69"/>
-      <c r="R74" s="70"/>
-      <c r="T74" s="70"/>
-      <c r="V74" s="71"/>
-      <c r="Y74" s="70"/>
-      <c r="AK74" s="69"/>
-      <c r="AR74" s="73"/>
+      <c r="A74" s="72"/>
+      <c r="R74" s="73"/>
+      <c r="T74" s="73"/>
+      <c r="V74" s="74"/>
+      <c r="Y74" s="73"/>
+      <c r="AK74" s="72"/>
+      <c r="AR74" s="76"/>
     </row>
     <row r="75" ht="35.25" customHeight="1">
-      <c r="A75" s="69"/>
-      <c r="R75" s="70"/>
-      <c r="T75" s="70"/>
-      <c r="V75" s="71"/>
-      <c r="Y75" s="70"/>
-      <c r="AK75" s="69"/>
-      <c r="AR75" s="73"/>
+      <c r="A75" s="72"/>
+      <c r="R75" s="73"/>
+      <c r="T75" s="73"/>
+      <c r="V75" s="74"/>
+      <c r="Y75" s="73"/>
+      <c r="AK75" s="72"/>
+      <c r="AR75" s="76"/>
     </row>
     <row r="76" ht="35.25" customHeight="1">
-      <c r="A76" s="69"/>
-      <c r="R76" s="70"/>
-      <c r="T76" s="70"/>
-      <c r="V76" s="71"/>
-      <c r="Y76" s="70"/>
-      <c r="AK76" s="69"/>
-      <c r="AR76" s="73"/>
+      <c r="A76" s="72"/>
+      <c r="R76" s="73"/>
+      <c r="T76" s="73"/>
+      <c r="V76" s="74"/>
+      <c r="Y76" s="73"/>
+      <c r="AK76" s="72"/>
+      <c r="AR76" s="76"/>
     </row>
     <row r="77" ht="35.25" customHeight="1">
-      <c r="A77" s="69"/>
-      <c r="R77" s="70"/>
-      <c r="T77" s="70"/>
-      <c r="V77" s="71"/>
-      <c r="Y77" s="70"/>
-      <c r="AK77" s="69"/>
-      <c r="AR77" s="73"/>
+      <c r="A77" s="72"/>
+      <c r="R77" s="73"/>
+      <c r="T77" s="73"/>
+      <c r="V77" s="74"/>
+      <c r="Y77" s="73"/>
+      <c r="AK77" s="72"/>
+      <c r="AR77" s="76"/>
     </row>
     <row r="78" ht="35.25" customHeight="1">
-      <c r="A78" s="69"/>
-      <c r="R78" s="70"/>
-      <c r="T78" s="70"/>
-      <c r="V78" s="71"/>
-      <c r="Y78" s="70"/>
-      <c r="AK78" s="69"/>
-      <c r="AR78" s="73"/>
+      <c r="A78" s="72"/>
+      <c r="R78" s="73"/>
+      <c r="T78" s="73"/>
+      <c r="V78" s="74"/>
+      <c r="Y78" s="73"/>
+      <c r="AK78" s="72"/>
+      <c r="AR78" s="76"/>
     </row>
     <row r="79" ht="35.25" customHeight="1">
-      <c r="A79" s="69"/>
-      <c r="R79" s="70"/>
-      <c r="T79" s="70"/>
-      <c r="V79" s="71"/>
-      <c r="Y79" s="70"/>
-      <c r="AK79" s="69"/>
-      <c r="AR79" s="73"/>
+      <c r="A79" s="72"/>
+      <c r="R79" s="73"/>
+      <c r="T79" s="73"/>
+      <c r="V79" s="74"/>
+      <c r="Y79" s="73"/>
+      <c r="AK79" s="72"/>
+      <c r="AR79" s="76"/>
     </row>
     <row r="80" ht="35.25" customHeight="1">
-      <c r="A80" s="69"/>
-      <c r="R80" s="70"/>
-      <c r="T80" s="70"/>
-      <c r="V80" s="71"/>
-      <c r="Y80" s="70"/>
-      <c r="AK80" s="69"/>
-      <c r="AR80" s="73"/>
+      <c r="A80" s="72"/>
+      <c r="R80" s="73"/>
+      <c r="T80" s="73"/>
+      <c r="V80" s="74"/>
+      <c r="Y80" s="73"/>
+      <c r="AK80" s="72"/>
+      <c r="AR80" s="76"/>
     </row>
     <row r="81" ht="35.25" customHeight="1">
-      <c r="A81" s="69"/>
-      <c r="R81" s="70"/>
-      <c r="T81" s="70"/>
-      <c r="V81" s="71"/>
-      <c r="Y81" s="70"/>
-      <c r="AK81" s="69"/>
-      <c r="AR81" s="73"/>
+      <c r="A81" s="72"/>
+      <c r="R81" s="73"/>
+      <c r="T81" s="73"/>
+      <c r="V81" s="74"/>
+      <c r="Y81" s="73"/>
+      <c r="AK81" s="72"/>
+      <c r="AR81" s="76"/>
     </row>
     <row r="82" ht="35.25" customHeight="1">
-      <c r="A82" s="69"/>
-      <c r="R82" s="70"/>
-      <c r="T82" s="70"/>
-      <c r="V82" s="71"/>
-      <c r="Y82" s="70"/>
-      <c r="AK82" s="69"/>
-      <c r="AR82" s="73"/>
+      <c r="A82" s="72"/>
+      <c r="R82" s="73"/>
+      <c r="T82" s="73"/>
+      <c r="V82" s="74"/>
+      <c r="Y82" s="73"/>
+      <c r="AK82" s="72"/>
+      <c r="AR82" s="76"/>
     </row>
     <row r="83" ht="35.25" customHeight="1">
-      <c r="A83" s="69"/>
-      <c r="R83" s="70"/>
-      <c r="T83" s="70"/>
-      <c r="V83" s="71"/>
-      <c r="Y83" s="70"/>
-      <c r="AK83" s="69"/>
-      <c r="AR83" s="73"/>
+      <c r="A83" s="72"/>
+      <c r="R83" s="73"/>
+      <c r="T83" s="73"/>
+      <c r="V83" s="74"/>
+      <c r="Y83" s="73"/>
+      <c r="AK83" s="72"/>
+      <c r="AR83" s="76"/>
     </row>
     <row r="84" ht="35.25" customHeight="1">
-      <c r="A84" s="69"/>
-      <c r="R84" s="70"/>
-      <c r="T84" s="70"/>
-      <c r="V84" s="71"/>
-      <c r="Y84" s="70"/>
-      <c r="AK84" s="69"/>
-      <c r="AR84" s="73"/>
+      <c r="A84" s="72"/>
+      <c r="R84" s="73"/>
+      <c r="T84" s="73"/>
+      <c r="V84" s="74"/>
+      <c r="Y84" s="73"/>
+      <c r="AK84" s="72"/>
+      <c r="AR84" s="76"/>
     </row>
     <row r="85" ht="35.25" customHeight="1">
-      <c r="A85" s="69"/>
-      <c r="R85" s="70"/>
-      <c r="T85" s="70"/>
-      <c r="V85" s="71"/>
-      <c r="Y85" s="70"/>
-      <c r="AK85" s="69"/>
-      <c r="AR85" s="73"/>
+      <c r="A85" s="72"/>
+      <c r="R85" s="73"/>
+      <c r="T85" s="73"/>
+      <c r="V85" s="74"/>
+      <c r="Y85" s="73"/>
+      <c r="AK85" s="72"/>
+      <c r="AR85" s="76"/>
     </row>
     <row r="86" ht="35.25" customHeight="1">
-      <c r="A86" s="69"/>
-      <c r="R86" s="70"/>
-      <c r="T86" s="70"/>
-      <c r="V86" s="71"/>
-      <c r="Y86" s="70"/>
-      <c r="AK86" s="69"/>
-      <c r="AR86" s="73"/>
+      <c r="A86" s="72"/>
+      <c r="R86" s="73"/>
+      <c r="T86" s="73"/>
+      <c r="V86" s="74"/>
+      <c r="Y86" s="73"/>
+      <c r="AK86" s="72"/>
+      <c r="AR86" s="76"/>
     </row>
     <row r="87" ht="35.25" customHeight="1">
-      <c r="A87" s="69"/>
-      <c r="R87" s="70"/>
-      <c r="T87" s="70"/>
-      <c r="V87" s="71"/>
-      <c r="Y87" s="70"/>
-      <c r="AK87" s="69"/>
-      <c r="AR87" s="73"/>
+      <c r="A87" s="72"/>
+      <c r="R87" s="73"/>
+      <c r="T87" s="73"/>
+      <c r="V87" s="74"/>
+      <c r="Y87" s="73"/>
+      <c r="AK87" s="72"/>
+      <c r="AR87" s="76"/>
     </row>
     <row r="88" ht="35.25" customHeight="1">
-      <c r="A88" s="69"/>
-      <c r="R88" s="70"/>
-      <c r="T88" s="70"/>
-      <c r="V88" s="71"/>
-      <c r="Y88" s="70"/>
-      <c r="AK88" s="69"/>
-      <c r="AR88" s="73"/>
+      <c r="A88" s="72"/>
+      <c r="R88" s="73"/>
+      <c r="T88" s="73"/>
+      <c r="V88" s="74"/>
+      <c r="Y88" s="73"/>
+      <c r="AK88" s="72"/>
+      <c r="AR88" s="76"/>
     </row>
     <row r="89" ht="35.25" customHeight="1">
-      <c r="A89" s="69"/>
-      <c r="R89" s="70"/>
-      <c r="T89" s="70"/>
-      <c r="V89" s="71"/>
-      <c r="Y89" s="70"/>
-      <c r="AK89" s="69"/>
-      <c r="AR89" s="73"/>
+      <c r="A89" s="72"/>
+      <c r="R89" s="73"/>
+      <c r="T89" s="73"/>
+      <c r="V89" s="74"/>
+      <c r="Y89" s="73"/>
+      <c r="AK89" s="72"/>
+      <c r="AR89" s="76"/>
     </row>
     <row r="90" ht="35.25" customHeight="1">
-      <c r="A90" s="69"/>
-      <c r="R90" s="70"/>
-      <c r="T90" s="70"/>
-      <c r="V90" s="71"/>
-      <c r="Y90" s="70"/>
-      <c r="AK90" s="69"/>
-      <c r="AR90" s="73"/>
+      <c r="A90" s="72"/>
+      <c r="R90" s="73"/>
+      <c r="T90" s="73"/>
+      <c r="V90" s="74"/>
+      <c r="Y90" s="73"/>
+      <c r="AK90" s="72"/>
+      <c r="AR90" s="76"/>
     </row>
     <row r="91" ht="35.25" customHeight="1">
-      <c r="A91" s="69"/>
-      <c r="R91" s="70"/>
-      <c r="T91" s="70"/>
-      <c r="V91" s="71"/>
-      <c r="Y91" s="70"/>
-      <c r="AK91" s="69"/>
-      <c r="AR91" s="73"/>
+      <c r="A91" s="72"/>
+      <c r="R91" s="73"/>
+      <c r="T91" s="73"/>
+      <c r="V91" s="74"/>
+      <c r="Y91" s="73"/>
+      <c r="AK91" s="72"/>
+      <c r="AR91" s="76"/>
     </row>
     <row r="92" ht="35.25" customHeight="1">
-      <c r="A92" s="69"/>
-      <c r="R92" s="70"/>
-      <c r="T92" s="70"/>
-      <c r="V92" s="71"/>
-      <c r="Y92" s="70"/>
-      <c r="AK92" s="69"/>
-      <c r="AR92" s="73"/>
+      <c r="A92" s="72"/>
+      <c r="R92" s="73"/>
+      <c r="T92" s="73"/>
+      <c r="V92" s="74"/>
+      <c r="Y92" s="73"/>
+      <c r="AK92" s="72"/>
+      <c r="AR92" s="76"/>
     </row>
     <row r="93" ht="35.25" customHeight="1">
-      <c r="A93" s="69"/>
-      <c r="R93" s="70"/>
-      <c r="T93" s="70"/>
-      <c r="V93" s="71"/>
-      <c r="Y93" s="70"/>
-      <c r="AK93" s="69"/>
-      <c r="AR93" s="73"/>
+      <c r="A93" s="72"/>
+      <c r="R93" s="73"/>
+      <c r="T93" s="73"/>
+      <c r="V93" s="74"/>
+      <c r="Y93" s="73"/>
+      <c r="AK93" s="72"/>
+      <c r="AR93" s="76"/>
     </row>
     <row r="94" ht="35.25" customHeight="1">
-      <c r="A94" s="69"/>
-      <c r="R94" s="70"/>
-      <c r="T94" s="70"/>
-      <c r="V94" s="71"/>
-      <c r="Y94" s="70"/>
-      <c r="AK94" s="69"/>
-      <c r="AR94" s="73"/>
+      <c r="A94" s="72"/>
+      <c r="R94" s="73"/>
+      <c r="T94" s="73"/>
+      <c r="V94" s="74"/>
+      <c r="Y94" s="73"/>
+      <c r="AK94" s="72"/>
+      <c r="AR94" s="76"/>
     </row>
     <row r="95" ht="35.25" customHeight="1">
-      <c r="A95" s="69"/>
-      <c r="R95" s="70"/>
-      <c r="T95" s="70"/>
-      <c r="V95" s="71"/>
-      <c r="Y95" s="70"/>
-      <c r="AK95" s="69"/>
-      <c r="AR95" s="73"/>
+      <c r="A95" s="72"/>
+      <c r="R95" s="73"/>
+      <c r="T95" s="73"/>
+      <c r="V95" s="74"/>
+      <c r="Y95" s="73"/>
+      <c r="AK95" s="72"/>
+      <c r="AR95" s="76"/>
     </row>
     <row r="96" ht="35.25" customHeight="1">
-      <c r="A96" s="69"/>
-      <c r="R96" s="70"/>
-      <c r="T96" s="70"/>
-      <c r="V96" s="71"/>
-      <c r="Y96" s="70"/>
-      <c r="AK96" s="69"/>
-      <c r="AR96" s="73"/>
+      <c r="A96" s="72"/>
+      <c r="R96" s="73"/>
+      <c r="T96" s="73"/>
+      <c r="V96" s="74"/>
+      <c r="Y96" s="73"/>
+      <c r="AK96" s="72"/>
+      <c r="AR96" s="76"/>
     </row>
     <row r="97" ht="35.25" customHeight="1">
-      <c r="A97" s="69"/>
-      <c r="R97" s="70"/>
-      <c r="T97" s="70"/>
-      <c r="V97" s="71"/>
-      <c r="Y97" s="70"/>
-      <c r="AK97" s="69"/>
-      <c r="AR97" s="73"/>
+      <c r="A97" s="72"/>
+      <c r="R97" s="73"/>
+      <c r="T97" s="73"/>
+      <c r="V97" s="74"/>
+      <c r="Y97" s="73"/>
+      <c r="AK97" s="72"/>
+      <c r="AR97" s="76"/>
     </row>
     <row r="98" ht="35.25" customHeight="1">
-      <c r="A98" s="69"/>
-      <c r="R98" s="70"/>
-      <c r="T98" s="70"/>
-      <c r="V98" s="71"/>
-      <c r="Y98" s="70"/>
-      <c r="AK98" s="69"/>
-      <c r="AR98" s="73"/>
+      <c r="A98" s="72"/>
+      <c r="R98" s="73"/>
+      <c r="T98" s="73"/>
+      <c r="V98" s="74"/>
+      <c r="Y98" s="73"/>
+      <c r="AK98" s="72"/>
+      <c r="AR98" s="76"/>
     </row>
     <row r="99" ht="35.25" customHeight="1">
-      <c r="A99" s="69"/>
-      <c r="R99" s="70"/>
-      <c r="T99" s="70"/>
-      <c r="V99" s="71"/>
-      <c r="Y99" s="70"/>
-      <c r="AK99" s="69"/>
-      <c r="AR99" s="73"/>
+      <c r="A99" s="72"/>
+      <c r="R99" s="73"/>
+      <c r="T99" s="73"/>
+      <c r="V99" s="74"/>
+      <c r="Y99" s="73"/>
+      <c r="AK99" s="72"/>
+      <c r="AR99" s="76"/>
     </row>
     <row r="100" ht="35.25" customHeight="1">
-      <c r="A100" s="69"/>
-      <c r="R100" s="70"/>
-      <c r="T100" s="70"/>
-      <c r="V100" s="71"/>
-      <c r="Y100" s="70"/>
-      <c r="AK100" s="69"/>
-      <c r="AR100" s="73"/>
+      <c r="A100" s="72"/>
+      <c r="R100" s="73"/>
+      <c r="T100" s="73"/>
+      <c r="V100" s="74"/>
+      <c r="Y100" s="73"/>
+      <c r="AK100" s="72"/>
+      <c r="AR100" s="76"/>
     </row>
     <row r="101" ht="35.25" customHeight="1">
-      <c r="A101" s="69"/>
-      <c r="R101" s="70"/>
-      <c r="T101" s="70"/>
-      <c r="V101" s="71"/>
-      <c r="Y101" s="70"/>
-      <c r="AK101" s="69"/>
-      <c r="AR101" s="73"/>
+      <c r="A101" s="72"/>
+      <c r="R101" s="73"/>
+      <c r="T101" s="73"/>
+      <c r="V101" s="74"/>
+      <c r="Y101" s="73"/>
+      <c r="AK101" s="72"/>
+      <c r="AR101" s="76"/>
     </row>
     <row r="102" ht="35.25" customHeight="1">
-      <c r="A102" s="69"/>
-      <c r="R102" s="70"/>
-      <c r="T102" s="70"/>
-      <c r="V102" s="71"/>
-      <c r="Y102" s="70"/>
-      <c r="AK102" s="69"/>
-      <c r="AR102" s="73"/>
+      <c r="A102" s="72"/>
+      <c r="R102" s="73"/>
+      <c r="T102" s="73"/>
+      <c r="V102" s="74"/>
+      <c r="Y102" s="73"/>
+      <c r="AK102" s="72"/>
+      <c r="AR102" s="76"/>
     </row>
     <row r="103" ht="35.25" customHeight="1">
-      <c r="A103" s="69"/>
-      <c r="R103" s="70"/>
-      <c r="T103" s="70"/>
-      <c r="V103" s="71"/>
-      <c r="Y103" s="70"/>
-      <c r="AK103" s="69"/>
-      <c r="AR103" s="73"/>
+      <c r="A103" s="72"/>
+      <c r="R103" s="73"/>
+      <c r="T103" s="73"/>
+      <c r="V103" s="74"/>
+      <c r="Y103" s="73"/>
+      <c r="AK103" s="72"/>
+      <c r="AR103" s="76"/>
     </row>
     <row r="104" ht="35.25" customHeight="1">
-      <c r="A104" s="69"/>
-      <c r="R104" s="70"/>
-      <c r="T104" s="70"/>
-      <c r="V104" s="71"/>
-      <c r="Y104" s="70"/>
-      <c r="AK104" s="69"/>
-      <c r="AR104" s="73"/>
+      <c r="A104" s="72"/>
+      <c r="R104" s="73"/>
+      <c r="T104" s="73"/>
+      <c r="V104" s="74"/>
+      <c r="Y104" s="73"/>
+      <c r="AK104" s="72"/>
+      <c r="AR104" s="76"/>
     </row>
     <row r="105" ht="35.25" customHeight="1">
-      <c r="A105" s="69"/>
-      <c r="R105" s="70"/>
-      <c r="T105" s="70"/>
-      <c r="V105" s="71"/>
-      <c r="Y105" s="70"/>
-      <c r="AK105" s="69"/>
-      <c r="AR105" s="73"/>
+      <c r="A105" s="72"/>
+      <c r="R105" s="73"/>
+      <c r="T105" s="73"/>
+      <c r="V105" s="74"/>
+      <c r="Y105" s="73"/>
+      <c r="AK105" s="72"/>
+      <c r="AR105" s="76"/>
     </row>
     <row r="106" ht="35.25" customHeight="1">
-      <c r="A106" s="69"/>
-      <c r="R106" s="70"/>
-      <c r="T106" s="70"/>
-      <c r="V106" s="71"/>
-      <c r="Y106" s="70"/>
-      <c r="AK106" s="69"/>
-      <c r="AR106" s="73"/>
+      <c r="A106" s="72"/>
+      <c r="R106" s="73"/>
+      <c r="T106" s="73"/>
+      <c r="V106" s="74"/>
+      <c r="Y106" s="73"/>
+      <c r="AK106" s="72"/>
+      <c r="AR106" s="76"/>
     </row>
     <row r="107" ht="35.25" customHeight="1">
-      <c r="A107" s="69"/>
-      <c r="R107" s="70"/>
-      <c r="T107" s="70"/>
-      <c r="V107" s="71"/>
-      <c r="Y107" s="70"/>
-      <c r="AK107" s="69"/>
-      <c r="AR107" s="73"/>
+      <c r="A107" s="72"/>
+      <c r="R107" s="73"/>
+      <c r="T107" s="73"/>
+      <c r="V107" s="74"/>
+      <c r="Y107" s="73"/>
+      <c r="AK107" s="72"/>
+      <c r="AR107" s="76"/>
     </row>
     <row r="108" ht="35.25" customHeight="1">
-      <c r="A108" s="69"/>
-      <c r="R108" s="70"/>
-      <c r="T108" s="70"/>
-      <c r="V108" s="71"/>
-      <c r="Y108" s="70"/>
-      <c r="AK108" s="69"/>
-      <c r="AR108" s="73"/>
+      <c r="A108" s="72"/>
+      <c r="R108" s="73"/>
+      <c r="T108" s="73"/>
+      <c r="V108" s="74"/>
+      <c r="Y108" s="73"/>
+      <c r="AK108" s="72"/>
+      <c r="AR108" s="76"/>
     </row>
     <row r="109" ht="35.25" customHeight="1">
-      <c r="A109" s="69"/>
-      <c r="R109" s="70"/>
-      <c r="T109" s="70"/>
-      <c r="V109" s="71"/>
-      <c r="Y109" s="70"/>
-      <c r="AK109" s="69"/>
-      <c r="AR109" s="73"/>
+      <c r="A109" s="72"/>
+      <c r="R109" s="73"/>
+      <c r="T109" s="73"/>
+      <c r="V109" s="74"/>
+      <c r="Y109" s="73"/>
+      <c r="AK109" s="72"/>
+      <c r="AR109" s="76"/>
     </row>
     <row r="110" ht="35.25" customHeight="1">
-      <c r="A110" s="69"/>
-      <c r="R110" s="70"/>
-      <c r="T110" s="70"/>
-      <c r="V110" s="71"/>
-      <c r="Y110" s="70"/>
-      <c r="AK110" s="69"/>
-      <c r="AR110" s="73"/>
+      <c r="A110" s="72"/>
+      <c r="R110" s="73"/>
+      <c r="T110" s="73"/>
+      <c r="V110" s="74"/>
+      <c r="Y110" s="73"/>
+      <c r="AK110" s="72"/>
+      <c r="AR110" s="76"/>
     </row>
     <row r="111" ht="35.25" customHeight="1">
-      <c r="A111" s="69"/>
-      <c r="R111" s="70"/>
-      <c r="T111" s="70"/>
-      <c r="V111" s="71"/>
-      <c r="Y111" s="70"/>
-      <c r="AK111" s="69"/>
-      <c r="AR111" s="73"/>
+      <c r="A111" s="72"/>
+      <c r="R111" s="73"/>
+      <c r="T111" s="73"/>
+      <c r="V111" s="74"/>
+      <c r="Y111" s="73"/>
+      <c r="AK111" s="72"/>
+      <c r="AR111" s="76"/>
     </row>
     <row r="112" ht="35.25" customHeight="1">
-      <c r="A112" s="69"/>
-      <c r="R112" s="70"/>
-      <c r="T112" s="70"/>
-      <c r="V112" s="71"/>
-      <c r="Y112" s="70"/>
-      <c r="AK112" s="69"/>
-      <c r="AR112" s="73"/>
+      <c r="A112" s="72"/>
+      <c r="R112" s="73"/>
+      <c r="T112" s="73"/>
+      <c r="V112" s="74"/>
+      <c r="Y112" s="73"/>
+      <c r="AK112" s="72"/>
+      <c r="AR112" s="76"/>
     </row>
     <row r="113" ht="35.25" customHeight="1">
-      <c r="A113" s="69"/>
-      <c r="R113" s="70"/>
-      <c r="T113" s="70"/>
-      <c r="V113" s="71"/>
-      <c r="Y113" s="70"/>
-      <c r="AK113" s="69"/>
-      <c r="AR113" s="73"/>
+      <c r="A113" s="72"/>
+      <c r="R113" s="73"/>
+      <c r="T113" s="73"/>
+      <c r="V113" s="74"/>
+      <c r="Y113" s="73"/>
+      <c r="AK113" s="72"/>
+      <c r="AR113" s="76"/>
     </row>
     <row r="114" ht="35.25" customHeight="1">
-      <c r="A114" s="69"/>
-      <c r="R114" s="70"/>
-      <c r="T114" s="70"/>
-      <c r="V114" s="71"/>
-      <c r="Y114" s="70"/>
-      <c r="AK114" s="69"/>
-      <c r="AR114" s="73"/>
+      <c r="A114" s="72"/>
+      <c r="R114" s="73"/>
+      <c r="T114" s="73"/>
+      <c r="V114" s="74"/>
+      <c r="Y114" s="73"/>
+      <c r="AK114" s="72"/>
+      <c r="AR114" s="76"/>
     </row>
     <row r="115" ht="35.25" customHeight="1">
-      <c r="A115" s="69"/>
-      <c r="R115" s="70"/>
-      <c r="T115" s="70"/>
-      <c r="V115" s="71"/>
-      <c r="Y115" s="70"/>
-      <c r="AK115" s="69"/>
-      <c r="AR115" s="73"/>
+      <c r="A115" s="72"/>
+      <c r="R115" s="73"/>
+      <c r="T115" s="73"/>
+      <c r="V115" s="74"/>
+      <c r="Y115" s="73"/>
+      <c r="AK115" s="72"/>
+      <c r="AR115" s="76"/>
     </row>
     <row r="116" ht="35.25" customHeight="1">
-      <c r="A116" s="69"/>
-      <c r="R116" s="70"/>
-      <c r="T116" s="70"/>
-      <c r="V116" s="71"/>
-      <c r="Y116" s="70"/>
-      <c r="AK116" s="69"/>
-      <c r="AR116" s="73"/>
+      <c r="A116" s="72"/>
+      <c r="R116" s="73"/>
+      <c r="T116" s="73"/>
+      <c r="V116" s="74"/>
+      <c r="Y116" s="73"/>
+      <c r="AK116" s="72"/>
+      <c r="AR116" s="76"/>
     </row>
     <row r="117" ht="35.25" customHeight="1">
-      <c r="A117" s="69"/>
-      <c r="R117" s="70"/>
-      <c r="T117" s="70"/>
-      <c r="V117" s="71"/>
-      <c r="Y117" s="70"/>
-      <c r="AK117" s="69"/>
-      <c r="AR117" s="73"/>
+      <c r="A117" s="72"/>
+      <c r="R117" s="73"/>
+      <c r="T117" s="73"/>
+      <c r="V117" s="74"/>
+      <c r="Y117" s="73"/>
+      <c r="AK117" s="72"/>
+      <c r="AR117" s="76"/>
     </row>
     <row r="118" ht="35.25" customHeight="1">
-      <c r="A118" s="69"/>
-      <c r="R118" s="70"/>
-      <c r="T118" s="70"/>
-      <c r="V118" s="71"/>
-      <c r="Y118" s="70"/>
-      <c r="AK118" s="69"/>
-      <c r="AR118" s="73"/>
+      <c r="A118" s="72"/>
+      <c r="R118" s="73"/>
+      <c r="T118" s="73"/>
+      <c r="V118" s="74"/>
+      <c r="Y118" s="73"/>
+      <c r="AK118" s="72"/>
+      <c r="AR118" s="76"/>
     </row>
     <row r="119" ht="35.25" customHeight="1">
-      <c r="A119" s="69"/>
-      <c r="R119" s="70"/>
-      <c r="T119" s="70"/>
-      <c r="V119" s="71"/>
-      <c r="Y119" s="70"/>
-      <c r="AK119" s="69"/>
-      <c r="AR119" s="73"/>
+      <c r="A119" s="72"/>
+      <c r="R119" s="73"/>
+      <c r="T119" s="73"/>
+      <c r="V119" s="74"/>
+      <c r="Y119" s="73"/>
+      <c r="AK119" s="72"/>
+      <c r="AR119" s="76"/>
     </row>
     <row r="120" ht="35.25" customHeight="1">
-      <c r="A120" s="69"/>
-      <c r="R120" s="70"/>
-      <c r="T120" s="70"/>
-      <c r="V120" s="71"/>
-      <c r="Y120" s="70"/>
-      <c r="AK120" s="69"/>
-      <c r="AR120" s="73"/>
+      <c r="A120" s="72"/>
+      <c r="R120" s="73"/>
+      <c r="T120" s="73"/>
+      <c r="V120" s="74"/>
+      <c r="Y120" s="73"/>
+      <c r="AK120" s="72"/>
+      <c r="AR120" s="76"/>
     </row>
     <row r="121" ht="35.25" customHeight="1">
-      <c r="A121" s="69"/>
-      <c r="R121" s="70"/>
-      <c r="T121" s="70"/>
-      <c r="V121" s="71"/>
-      <c r="Y121" s="70"/>
-      <c r="AK121" s="69"/>
-      <c r="AR121" s="73"/>
+      <c r="A121" s="72"/>
+      <c r="R121" s="73"/>
+      <c r="T121" s="73"/>
+      <c r="V121" s="74"/>
+      <c r="Y121" s="73"/>
+      <c r="AK121" s="72"/>
+      <c r="AR121" s="76"/>
     </row>
     <row r="122" ht="35.25" customHeight="1">
-      <c r="A122" s="69"/>
-      <c r="R122" s="70"/>
-      <c r="T122" s="70"/>
-      <c r="V122" s="71"/>
-      <c r="Y122" s="70"/>
-      <c r="AK122" s="69"/>
-      <c r="AR122" s="73"/>
+      <c r="A122" s="72"/>
+      <c r="R122" s="73"/>
+      <c r="T122" s="73"/>
+      <c r="V122" s="74"/>
+      <c r="Y122" s="73"/>
+      <c r="AK122" s="72"/>
+      <c r="AR122" s="76"/>
     </row>
     <row r="123" ht="35.25" customHeight="1">
-      <c r="A123" s="69"/>
-      <c r="R123" s="70"/>
-      <c r="T123" s="70"/>
-      <c r="V123" s="71"/>
-      <c r="Y123" s="70"/>
-      <c r="AK123" s="69"/>
-      <c r="AR123" s="73"/>
+      <c r="A123" s="72"/>
+      <c r="R123" s="73"/>
+      <c r="T123" s="73"/>
+      <c r="V123" s="74"/>
+      <c r="Y123" s="73"/>
+      <c r="AK123" s="72"/>
+      <c r="AR123" s="76"/>
     </row>
     <row r="124" ht="35.25" customHeight="1">
-      <c r="A124" s="69"/>
-      <c r="R124" s="70"/>
-      <c r="T124" s="70"/>
-      <c r="V124" s="71"/>
-      <c r="Y124" s="70"/>
-      <c r="AK124" s="69"/>
-      <c r="AR124" s="73"/>
+      <c r="A124" s="72"/>
+      <c r="R124" s="73"/>
+      <c r="T124" s="73"/>
+      <c r="V124" s="74"/>
+      <c r="Y124" s="73"/>
+      <c r="AK124" s="72"/>
+      <c r="AR124" s="76"/>
     </row>
     <row r="125" ht="35.25" customHeight="1">
-      <c r="A125" s="69"/>
-      <c r="R125" s="70"/>
-      <c r="T125" s="70"/>
-      <c r="V125" s="71"/>
-      <c r="Y125" s="70"/>
-      <c r="AK125" s="69"/>
-      <c r="AR125" s="73"/>
+      <c r="A125" s="72"/>
+      <c r="R125" s="73"/>
+      <c r="T125" s="73"/>
+      <c r="V125" s="74"/>
+      <c r="Y125" s="73"/>
+      <c r="AK125" s="72"/>
+      <c r="AR125" s="76"/>
     </row>
     <row r="126" ht="35.25" customHeight="1">
-      <c r="A126" s="69"/>
-      <c r="R126" s="70"/>
-      <c r="T126" s="70"/>
-      <c r="V126" s="71"/>
-      <c r="Y126" s="70"/>
-      <c r="AK126" s="69"/>
-      <c r="AR126" s="73"/>
+      <c r="A126" s="72"/>
+      <c r="R126" s="73"/>
+      <c r="T126" s="73"/>
+      <c r="V126" s="74"/>
+      <c r="Y126" s="73"/>
+      <c r="AK126" s="72"/>
+      <c r="AR126" s="76"/>
     </row>
     <row r="127" ht="35.25" customHeight="1">
-      <c r="A127" s="69"/>
-      <c r="R127" s="70"/>
-      <c r="T127" s="70"/>
-      <c r="V127" s="71"/>
-      <c r="Y127" s="70"/>
-      <c r="AK127" s="69"/>
-      <c r="AR127" s="73"/>
+      <c r="A127" s="72"/>
+      <c r="R127" s="73"/>
+      <c r="T127" s="73"/>
+      <c r="V127" s="74"/>
+      <c r="Y127" s="73"/>
+      <c r="AK127" s="72"/>
+      <c r="AR127" s="76"/>
     </row>
     <row r="128" ht="35.25" customHeight="1">
-      <c r="A128" s="69"/>
-      <c r="R128" s="70"/>
-      <c r="T128" s="70"/>
-      <c r="V128" s="71"/>
-      <c r="Y128" s="70"/>
-      <c r="AK128" s="69"/>
-      <c r="AR128" s="73"/>
+      <c r="A128" s="72"/>
+      <c r="R128" s="73"/>
+      <c r="T128" s="73"/>
+      <c r="V128" s="74"/>
+      <c r="Y128" s="73"/>
+      <c r="AK128" s="72"/>
+      <c r="AR128" s="76"/>
     </row>
     <row r="129" ht="35.25" customHeight="1">
-      <c r="A129" s="69"/>
-      <c r="R129" s="70"/>
-      <c r="T129" s="70"/>
-      <c r="V129" s="71"/>
-      <c r="Y129" s="70"/>
-      <c r="AK129" s="69"/>
-      <c r="AR129" s="73"/>
+      <c r="A129" s="72"/>
+      <c r="R129" s="73"/>
+      <c r="T129" s="73"/>
+      <c r="V129" s="74"/>
+      <c r="Y129" s="73"/>
+      <c r="AK129" s="72"/>
+      <c r="AR129" s="76"/>
     </row>
     <row r="130" ht="35.25" customHeight="1">
-      <c r="A130" s="69"/>
-      <c r="R130" s="70"/>
-      <c r="T130" s="70"/>
-      <c r="V130" s="71"/>
-      <c r="Y130" s="70"/>
-      <c r="AK130" s="69"/>
-      <c r="AR130" s="73"/>
+      <c r="A130" s="72"/>
+      <c r="R130" s="73"/>
+      <c r="T130" s="73"/>
+      <c r="V130" s="74"/>
+      <c r="Y130" s="73"/>
+      <c r="AK130" s="72"/>
+      <c r="AR130" s="76"/>
     </row>
     <row r="131" ht="35.25" customHeight="1">
-      <c r="A131" s="69"/>
-      <c r="R131" s="70"/>
-      <c r="T131" s="70"/>
-      <c r="V131" s="71"/>
-      <c r="Y131" s="70"/>
-      <c r="AK131" s="69"/>
-      <c r="AR131" s="73"/>
+      <c r="A131" s="72"/>
+      <c r="R131" s="73"/>
+      <c r="T131" s="73"/>
+      <c r="V131" s="74"/>
+      <c r="Y131" s="73"/>
+      <c r="AK131" s="72"/>
+      <c r="AR131" s="76"/>
     </row>
     <row r="132" ht="35.25" customHeight="1">
-      <c r="A132" s="69"/>
-      <c r="R132" s="70"/>
-      <c r="T132" s="70"/>
-      <c r="V132" s="71"/>
-      <c r="Y132" s="70"/>
-      <c r="AK132" s="69"/>
-      <c r="AR132" s="73"/>
+      <c r="A132" s="72"/>
+      <c r="R132" s="73"/>
+      <c r="T132" s="73"/>
+      <c r="V132" s="74"/>
+      <c r="Y132" s="73"/>
+      <c r="AK132" s="72"/>
+      <c r="AR132" s="76"/>
     </row>
     <row r="133" ht="35.25" customHeight="1">
-      <c r="A133" s="69"/>
-      <c r="R133" s="70"/>
-      <c r="T133" s="70"/>
-      <c r="V133" s="71"/>
-      <c r="Y133" s="70"/>
-      <c r="AK133" s="69"/>
-      <c r="AR133" s="73"/>
+      <c r="A133" s="72"/>
+      <c r="R133" s="73"/>
+      <c r="T133" s="73"/>
+      <c r="V133" s="74"/>
+      <c r="Y133" s="73"/>
+      <c r="AK133" s="72"/>
+      <c r="AR133" s="76"/>
     </row>
     <row r="134" ht="35.25" customHeight="1">
-      <c r="A134" s="69"/>
-      <c r="R134" s="70"/>
-      <c r="T134" s="70"/>
-      <c r="V134" s="71"/>
-      <c r="Y134" s="70"/>
-      <c r="AK134" s="69"/>
-      <c r="AR134" s="73"/>
+      <c r="A134" s="72"/>
+      <c r="R134" s="73"/>
+      <c r="T134" s="73"/>
+      <c r="V134" s="74"/>
+      <c r="Y134" s="73"/>
+      <c r="AK134" s="72"/>
+      <c r="AR134" s="76"/>
     </row>
     <row r="135" ht="35.25" customHeight="1">
-      <c r="A135" s="69"/>
-      <c r="R135" s="70"/>
-      <c r="T135" s="70"/>
-      <c r="V135" s="71"/>
-      <c r="Y135" s="70"/>
-      <c r="AK135" s="69"/>
-      <c r="AR135" s="73"/>
+      <c r="A135" s="72"/>
+      <c r="R135" s="73"/>
+      <c r="T135" s="73"/>
+      <c r="V135" s="74"/>
+      <c r="Y135" s="73"/>
+      <c r="AK135" s="72"/>
+      <c r="AR135" s="76"/>
     </row>
     <row r="136" ht="35.25" customHeight="1">
-      <c r="A136" s="69"/>
-      <c r="R136" s="70"/>
-      <c r="T136" s="70"/>
-      <c r="V136" s="71"/>
-      <c r="Y136" s="70"/>
-      <c r="AK136" s="69"/>
-      <c r="AR136" s="73"/>
+      <c r="A136" s="72"/>
+      <c r="R136" s="73"/>
+      <c r="T136" s="73"/>
+      <c r="V136" s="74"/>
+      <c r="Y136" s="73"/>
+      <c r="AK136" s="72"/>
+      <c r="AR136" s="76"/>
     </row>
     <row r="137" ht="35.25" customHeight="1">
-      <c r="A137" s="69"/>
-      <c r="R137" s="70"/>
-      <c r="T137" s="70"/>
-      <c r="V137" s="71"/>
-      <c r="Y137" s="70"/>
-      <c r="AK137" s="69"/>
-      <c r="AR137" s="73"/>
+      <c r="A137" s="72"/>
+      <c r="R137" s="73"/>
+      <c r="T137" s="73"/>
+      <c r="V137" s="74"/>
+      <c r="Y137" s="73"/>
+      <c r="AK137" s="72"/>
+      <c r="AR137" s="76"/>
     </row>
     <row r="138" ht="35.25" customHeight="1">
-      <c r="A138" s="69"/>
-      <c r="R138" s="70"/>
-      <c r="T138" s="70"/>
-      <c r="V138" s="71"/>
-      <c r="Y138" s="70"/>
-      <c r="AK138" s="69"/>
-      <c r="AR138" s="73"/>
+      <c r="A138" s="72"/>
+      <c r="R138" s="73"/>
+      <c r="T138" s="73"/>
+      <c r="V138" s="74"/>
+      <c r="Y138" s="73"/>
+      <c r="AK138" s="72"/>
+      <c r="AR138" s="76"/>
     </row>
     <row r="139" ht="35.25" customHeight="1">
-      <c r="A139" s="69"/>
-      <c r="R139" s="70"/>
-      <c r="T139" s="70"/>
-      <c r="V139" s="71"/>
-      <c r="Y139" s="70"/>
-      <c r="AK139" s="69"/>
-      <c r="AR139" s="73"/>
+      <c r="A139" s="72"/>
+      <c r="R139" s="73"/>
+      <c r="T139" s="73"/>
+      <c r="V139" s="74"/>
+      <c r="Y139" s="73"/>
+      <c r="AK139" s="72"/>
+      <c r="AR139" s="76"/>
     </row>
     <row r="140" ht="35.25" customHeight="1">
-      <c r="A140" s="69"/>
-      <c r="R140" s="70"/>
-      <c r="T140" s="70"/>
-      <c r="V140" s="71"/>
-      <c r="Y140" s="70"/>
-      <c r="AK140" s="69"/>
-      <c r="AR140" s="73"/>
+      <c r="A140" s="72"/>
+      <c r="R140" s="73"/>
+      <c r="T140" s="73"/>
+      <c r="V140" s="74"/>
+      <c r="Y140" s="73"/>
+      <c r="AK140" s="72"/>
+      <c r="AR140" s="76"/>
     </row>
     <row r="141" ht="35.25" customHeight="1">
-      <c r="A141" s="69"/>
-      <c r="R141" s="70"/>
-      <c r="T141" s="70"/>
-      <c r="V141" s="71"/>
-      <c r="Y141" s="70"/>
-      <c r="AK141" s="69"/>
-      <c r="AR141" s="73"/>
+      <c r="A141" s="72"/>
+      <c r="R141" s="73"/>
+      <c r="T141" s="73"/>
+      <c r="V141" s="74"/>
+      <c r="Y141" s="73"/>
+      <c r="AK141" s="72"/>
+      <c r="AR141" s="76"/>
     </row>
     <row r="142" ht="35.25" customHeight="1">
-      <c r="A142" s="69"/>
-      <c r="R142" s="70"/>
-      <c r="T142" s="70"/>
-      <c r="V142" s="71"/>
-      <c r="Y142" s="70"/>
-      <c r="AK142" s="69"/>
-      <c r="AR142" s="73"/>
+      <c r="A142" s="72"/>
+      <c r="R142" s="73"/>
+      <c r="T142" s="73"/>
+      <c r="V142" s="74"/>
+      <c r="Y142" s="73"/>
+      <c r="AK142" s="72"/>
+      <c r="AR142" s="76"/>
     </row>
     <row r="143" ht="35.25" customHeight="1">
-      <c r="A143" s="69"/>
-      <c r="R143" s="70"/>
-      <c r="T143" s="70"/>
-      <c r="V143" s="71"/>
-      <c r="Y143" s="70"/>
-      <c r="AK143" s="69"/>
-      <c r="AR143" s="73"/>
+      <c r="A143" s="72"/>
+      <c r="R143" s="73"/>
+      <c r="T143" s="73"/>
+      <c r="V143" s="74"/>
+      <c r="Y143" s="73"/>
+      <c r="AK143" s="72"/>
+      <c r="AR143" s="76"/>
     </row>
     <row r="144" ht="35.25" customHeight="1">
-      <c r="A144" s="69"/>
-      <c r="R144" s="70"/>
-      <c r="T144" s="70"/>
-      <c r="V144" s="71"/>
-      <c r="Y144" s="70"/>
-      <c r="AK144" s="69"/>
-      <c r="AR144" s="73"/>
+      <c r="A144" s="72"/>
+      <c r="R144" s="73"/>
+      <c r="T144" s="73"/>
+      <c r="V144" s="74"/>
+      <c r="Y144" s="73"/>
+      <c r="AK144" s="72"/>
+      <c r="AR144" s="76"/>
     </row>
     <row r="145" ht="35.25" customHeight="1">
-      <c r="A145" s="69"/>
-      <c r="R145" s="70"/>
-      <c r="T145" s="70"/>
-      <c r="V145" s="71"/>
-      <c r="Y145" s="70"/>
-      <c r="AK145" s="69"/>
-      <c r="AR145" s="73"/>
+      <c r="A145" s="72"/>
+      <c r="R145" s="73"/>
+      <c r="T145" s="73"/>
+      <c r="V145" s="74"/>
+      <c r="Y145" s="73"/>
+      <c r="AK145" s="72"/>
+      <c r="AR145" s="76"/>
     </row>
     <row r="146" ht="35.25" customHeight="1">
-      <c r="A146" s="69"/>
-      <c r="R146" s="70"/>
-      <c r="T146" s="70"/>
-      <c r="V146" s="71"/>
-      <c r="Y146" s="70"/>
-      <c r="AK146" s="69"/>
-      <c r="AR146" s="73"/>
+      <c r="A146" s="72"/>
+      <c r="R146" s="73"/>
+      <c r="T146" s="73"/>
+      <c r="V146" s="74"/>
+      <c r="Y146" s="73"/>
+      <c r="AK146" s="72"/>
+      <c r="AR146" s="76"/>
     </row>
     <row r="147" ht="35.25" customHeight="1">
-      <c r="A147" s="69"/>
-      <c r="R147" s="70"/>
-      <c r="T147" s="70"/>
-      <c r="V147" s="71"/>
-      <c r="Y147" s="70"/>
-      <c r="AK147" s="69"/>
-      <c r="AR147" s="73"/>
+      <c r="A147" s="72"/>
+      <c r="R147" s="73"/>
+      <c r="T147" s="73"/>
+      <c r="V147" s="74"/>
+      <c r="Y147" s="73"/>
+      <c r="AK147" s="72"/>
+      <c r="AR147" s="76"/>
     </row>
     <row r="148" ht="35.25" customHeight="1">
-      <c r="A148" s="69"/>
-      <c r="R148" s="70"/>
-      <c r="T148" s="70"/>
-      <c r="V148" s="71"/>
-      <c r="Y148" s="70"/>
-      <c r="AK148" s="69"/>
-      <c r="AR148" s="73"/>
+      <c r="A148" s="72"/>
+      <c r="R148" s="73"/>
+      <c r="T148" s="73"/>
+      <c r="V148" s="74"/>
+      <c r="Y148" s="73"/>
+      <c r="AK148" s="72"/>
+      <c r="AR148" s="76"/>
     </row>
     <row r="149" ht="35.25" customHeight="1">
-      <c r="A149" s="69"/>
-      <c r="R149" s="70"/>
-      <c r="T149" s="70"/>
-      <c r="V149" s="71"/>
-      <c r="Y149" s="70"/>
-      <c r="AK149" s="69"/>
-      <c r="AR149" s="73"/>
+      <c r="A149" s="72"/>
+      <c r="R149" s="73"/>
+      <c r="T149" s="73"/>
+      <c r="V149" s="74"/>
+      <c r="Y149" s="73"/>
+      <c r="AK149" s="72"/>
+      <c r="AR149" s="76"/>
     </row>
     <row r="150" ht="35.25" customHeight="1">
-      <c r="A150" s="69"/>
-      <c r="R150" s="70"/>
-      <c r="T150" s="70"/>
-      <c r="V150" s="71"/>
-      <c r="Y150" s="70"/>
-      <c r="AK150" s="69"/>
-      <c r="AR150" s="73"/>
+      <c r="A150" s="72"/>
+      <c r="R150" s="73"/>
+      <c r="T150" s="73"/>
+      <c r="V150" s="74"/>
+      <c r="Y150" s="73"/>
+      <c r="AK150" s="72"/>
+      <c r="AR150" s="76"/>
     </row>
     <row r="151" ht="35.25" customHeight="1">
-      <c r="A151" s="69"/>
-      <c r="R151" s="70"/>
-      <c r="T151" s="70"/>
-      <c r="V151" s="71"/>
-      <c r="Y151" s="70"/>
-      <c r="AK151" s="69"/>
-      <c r="AR151" s="73"/>
+      <c r="A151" s="72"/>
+      <c r="R151" s="73"/>
+      <c r="T151" s="73"/>
+      <c r="V151" s="74"/>
+      <c r="Y151" s="73"/>
+      <c r="AK151" s="72"/>
+      <c r="AR151" s="76"/>
     </row>
     <row r="152" ht="35.25" customHeight="1">
-      <c r="A152" s="69"/>
-      <c r="R152" s="70"/>
-      <c r="T152" s="70"/>
-      <c r="V152" s="71"/>
-      <c r="Y152" s="70"/>
-      <c r="AK152" s="69"/>
-      <c r="AR152" s="73"/>
+      <c r="A152" s="72"/>
+      <c r="R152" s="73"/>
+      <c r="T152" s="73"/>
+      <c r="V152" s="74"/>
+      <c r="Y152" s="73"/>
+      <c r="AK152" s="72"/>
+      <c r="AR152" s="76"/>
     </row>
     <row r="153" ht="35.25" customHeight="1">
-      <c r="A153" s="69"/>
-      <c r="R153" s="70"/>
-      <c r="T153" s="70"/>
-      <c r="V153" s="71"/>
-      <c r="Y153" s="70"/>
-      <c r="AK153" s="69"/>
-      <c r="AR153" s="73"/>
+      <c r="A153" s="72"/>
+      <c r="R153" s="73"/>
+      <c r="T153" s="73"/>
+      <c r="V153" s="74"/>
+      <c r="Y153" s="73"/>
+      <c r="AK153" s="72"/>
+      <c r="AR153" s="76"/>
     </row>
     <row r="154" ht="35.25" customHeight="1">
-      <c r="A154" s="69"/>
-      <c r="R154" s="70"/>
-      <c r="T154" s="70"/>
-      <c r="V154" s="71"/>
-      <c r="Y154" s="70"/>
-      <c r="AK154" s="69"/>
-      <c r="AR154" s="73"/>
+      <c r="A154" s="72"/>
+      <c r="R154" s="73"/>
+      <c r="T154" s="73"/>
+      <c r="V154" s="74"/>
+      <c r="Y154" s="73"/>
+      <c r="AK154" s="72"/>
+      <c r="AR154" s="76"/>
     </row>
     <row r="155" ht="35.25" customHeight="1">
-      <c r="A155" s="69"/>
-      <c r="R155" s="70"/>
-      <c r="T155" s="70"/>
-      <c r="V155" s="71"/>
-      <c r="Y155" s="70"/>
-      <c r="AK155" s="69"/>
-      <c r="AR155" s="73"/>
+      <c r="A155" s="72"/>
+      <c r="R155" s="73"/>
+      <c r="T155" s="73"/>
+      <c r="V155" s="74"/>
+      <c r="Y155" s="73"/>
+      <c r="AK155" s="72"/>
+      <c r="AR155" s="76"/>
     </row>
     <row r="156" ht="35.25" customHeight="1">
-      <c r="A156" s="69"/>
-      <c r="R156" s="70"/>
-      <c r="T156" s="70"/>
-      <c r="V156" s="71"/>
-      <c r="Y156" s="70"/>
-      <c r="AK156" s="69"/>
-      <c r="AR156" s="73"/>
+      <c r="A156" s="72"/>
+      <c r="R156" s="73"/>
+      <c r="T156" s="73"/>
+      <c r="V156" s="74"/>
+      <c r="Y156" s="73"/>
+      <c r="AK156" s="72"/>
+      <c r="AR156" s="76"/>
     </row>
     <row r="157" ht="35.25" customHeight="1">
-      <c r="A157" s="69"/>
-      <c r="R157" s="70"/>
-      <c r="T157" s="70"/>
-      <c r="V157" s="71"/>
-      <c r="Y157" s="70"/>
-      <c r="AK157" s="69"/>
-      <c r="AR157" s="73"/>
+      <c r="A157" s="72"/>
+      <c r="R157" s="73"/>
+      <c r="T157" s="73"/>
+      <c r="V157" s="74"/>
+      <c r="Y157" s="73"/>
+      <c r="AK157" s="72"/>
+      <c r="AR157" s="76"/>
     </row>
     <row r="158" ht="35.25" customHeight="1">
-      <c r="A158" s="69"/>
-      <c r="R158" s="70"/>
-      <c r="T158" s="70"/>
-      <c r="V158" s="71"/>
-      <c r="Y158" s="70"/>
-      <c r="AK158" s="69"/>
-      <c r="AR158" s="73"/>
+      <c r="A158" s="72"/>
+      <c r="R158" s="73"/>
+      <c r="T158" s="73"/>
+      <c r="V158" s="74"/>
+      <c r="Y158" s="73"/>
+      <c r="AK158" s="72"/>
+      <c r="AR158" s="76"/>
     </row>
     <row r="159" ht="35.25" customHeight="1">
-      <c r="A159" s="69"/>
-      <c r="R159" s="70"/>
-      <c r="T159" s="70"/>
-      <c r="V159" s="71"/>
-      <c r="Y159" s="70"/>
-      <c r="AK159" s="69"/>
-      <c r="AR159" s="73"/>
+      <c r="A159" s="72"/>
+      <c r="R159" s="73"/>
+      <c r="T159" s="73"/>
+      <c r="V159" s="74"/>
+      <c r="Y159" s="73"/>
+      <c r="AK159" s="72"/>
+      <c r="AR159" s="76"/>
     </row>
     <row r="160" ht="35.25" customHeight="1">
-      <c r="A160" s="69"/>
-      <c r="R160" s="70"/>
-      <c r="T160" s="70"/>
-      <c r="V160" s="71"/>
-      <c r="Y160" s="70"/>
-      <c r="AK160" s="69"/>
-      <c r="AR160" s="73"/>
+      <c r="A160" s="72"/>
+      <c r="R160" s="73"/>
+      <c r="T160" s="73"/>
+      <c r="V160" s="74"/>
+      <c r="Y160" s="73"/>
+      <c r="AK160" s="72"/>
+      <c r="AR160" s="76"/>
     </row>
     <row r="161" ht="35.25" customHeight="1">
-      <c r="A161" s="69"/>
-      <c r="R161" s="70"/>
-      <c r="T161" s="70"/>
-      <c r="V161" s="71"/>
-      <c r="Y161" s="70"/>
-      <c r="AK161" s="69"/>
-      <c r="AR161" s="73"/>
+      <c r="A161" s="72"/>
+      <c r="R161" s="73"/>
+      <c r="T161" s="73"/>
+      <c r="V161" s="74"/>
+      <c r="Y161" s="73"/>
+      <c r="AK161" s="72"/>
+      <c r="AR161" s="76"/>
     </row>
     <row r="162" ht="35.25" customHeight="1">
-      <c r="A162" s="69"/>
-      <c r="R162" s="70"/>
-      <c r="T162" s="70"/>
-      <c r="V162" s="71"/>
-      <c r="Y162" s="70"/>
-      <c r="AK162" s="69"/>
-      <c r="AR162" s="73"/>
+      <c r="A162" s="72"/>
+      <c r="R162" s="73"/>
+      <c r="T162" s="73"/>
+      <c r="V162" s="74"/>
+      <c r="Y162" s="73"/>
+      <c r="AK162" s="72"/>
+      <c r="AR162" s="76"/>
     </row>
     <row r="163" ht="35.25" customHeight="1">
-      <c r="A163" s="69"/>
-      <c r="R163" s="70"/>
-      <c r="T163" s="70"/>
-      <c r="V163" s="71"/>
-      <c r="Y163" s="70"/>
-      <c r="AK163" s="69"/>
-      <c r="AR163" s="73"/>
+      <c r="A163" s="72"/>
+      <c r="R163" s="73"/>
+      <c r="T163" s="73"/>
+      <c r="V163" s="74"/>
+      <c r="Y163" s="73"/>
+      <c r="AK163" s="72"/>
+      <c r="AR163" s="76"/>
     </row>
     <row r="164" ht="35.25" customHeight="1">
-      <c r="A164" s="69"/>
-      <c r="R164" s="70"/>
-      <c r="T164" s="70"/>
-      <c r="V164" s="71"/>
-      <c r="Y164" s="70"/>
-      <c r="AK164" s="69"/>
-      <c r="AR164" s="73"/>
+      <c r="A164" s="72"/>
+      <c r="R164" s="73"/>
+      <c r="T164" s="73"/>
+      <c r="V164" s="74"/>
+      <c r="Y164" s="73"/>
+      <c r="AK164" s="72"/>
+      <c r="AR164" s="76"/>
     </row>
     <row r="165" ht="35.25" customHeight="1">
-      <c r="A165" s="69"/>
-      <c r="R165" s="70"/>
-      <c r="T165" s="70"/>
-      <c r="V165" s="71"/>
-      <c r="Y165" s="70"/>
-      <c r="AK165" s="69"/>
-      <c r="AR165" s="73"/>
+      <c r="A165" s="72"/>
+      <c r="R165" s="73"/>
+      <c r="T165" s="73"/>
+      <c r="V165" s="74"/>
+      <c r="Y165" s="73"/>
+      <c r="AK165" s="72"/>
+      <c r="AR165" s="76"/>
     </row>
     <row r="166" ht="35.25" customHeight="1">
-      <c r="A166" s="69"/>
-      <c r="R166" s="70"/>
-      <c r="T166" s="70"/>
-      <c r="V166" s="71"/>
-      <c r="Y166" s="70"/>
-      <c r="AK166" s="69"/>
-      <c r="AR166" s="73"/>
+      <c r="A166" s="72"/>
+      <c r="R166" s="73"/>
+      <c r="T166" s="73"/>
+      <c r="V166" s="74"/>
+      <c r="Y166" s="73"/>
+      <c r="AK166" s="72"/>
+      <c r="AR166" s="76"/>
     </row>
     <row r="167" ht="35.25" customHeight="1">
-      <c r="A167" s="69"/>
-      <c r="R167" s="70"/>
-      <c r="T167" s="70"/>
-      <c r="V167" s="71"/>
-      <c r="Y167" s="70"/>
-      <c r="AK167" s="69"/>
-      <c r="AR167" s="73"/>
+      <c r="A167" s="72"/>
+      <c r="R167" s="73"/>
+      <c r="T167" s="73"/>
+      <c r="V167" s="74"/>
+      <c r="Y167" s="73"/>
+      <c r="AK167" s="72"/>
+      <c r="AR167" s="76"/>
     </row>
     <row r="168" ht="35.25" customHeight="1">
-      <c r="A168" s="69"/>
-      <c r="R168" s="70"/>
-      <c r="T168" s="70"/>
-      <c r="V168" s="71"/>
-      <c r="Y168" s="70"/>
-      <c r="AK168" s="69"/>
-      <c r="AR168" s="73"/>
+      <c r="A168" s="72"/>
+      <c r="R168" s="73"/>
+      <c r="T168" s="73"/>
+      <c r="V168" s="74"/>
+      <c r="Y168" s="73"/>
+      <c r="AK168" s="72"/>
+      <c r="AR168" s="76"/>
     </row>
     <row r="169" ht="35.25" customHeight="1">
-      <c r="A169" s="69"/>
-      <c r="R169" s="70"/>
-      <c r="T169" s="70"/>
-      <c r="V169" s="71"/>
-      <c r="Y169" s="70"/>
-      <c r="AK169" s="69"/>
-      <c r="AR169" s="73"/>
+      <c r="A169" s="72"/>
+      <c r="R169" s="73"/>
+      <c r="T169" s="73"/>
+      <c r="V169" s="74"/>
+      <c r="Y169" s="73"/>
+      <c r="AK169" s="72"/>
+      <c r="AR169" s="76"/>
     </row>
     <row r="170" ht="35.25" customHeight="1">
-      <c r="A170" s="69"/>
-      <c r="R170" s="70"/>
-      <c r="T170" s="70"/>
-      <c r="V170" s="71"/>
-      <c r="Y170" s="70"/>
-      <c r="AK170" s="69"/>
-      <c r="AR170" s="73"/>
+      <c r="A170" s="72"/>
+      <c r="R170" s="73"/>
+      <c r="T170" s="73"/>
+      <c r="V170" s="74"/>
+      <c r="Y170" s="73"/>
+      <c r="AK170" s="72"/>
+      <c r="AR170" s="76"/>
     </row>
     <row r="171" ht="35.25" customHeight="1">
-      <c r="A171" s="69"/>
-      <c r="R171" s="70"/>
-      <c r="T171" s="70"/>
-      <c r="V171" s="71"/>
-      <c r="Y171" s="70"/>
-      <c r="AK171" s="69"/>
-      <c r="AR171" s="73"/>
+      <c r="A171" s="72"/>
+      <c r="R171" s="73"/>
+      <c r="T171" s="73"/>
+      <c r="V171" s="74"/>
+      <c r="Y171" s="73"/>
+      <c r="AK171" s="72"/>
+      <c r="AR171" s="76"/>
     </row>
     <row r="172" ht="35.25" customHeight="1">
-      <c r="A172" s="69"/>
-      <c r="R172" s="70"/>
-      <c r="T172" s="70"/>
-      <c r="V172" s="71"/>
-      <c r="Y172" s="70"/>
-      <c r="AK172" s="69"/>
-      <c r="AR172" s="73"/>
+      <c r="A172" s="72"/>
+      <c r="R172" s="73"/>
+      <c r="T172" s="73"/>
+      <c r="V172" s="74"/>
+      <c r="Y172" s="73"/>
+      <c r="AK172" s="72"/>
+      <c r="AR172" s="76"/>
     </row>
     <row r="173" ht="35.25" customHeight="1">
-      <c r="A173" s="69"/>
-      <c r="R173" s="70"/>
-      <c r="T173" s="70"/>
-      <c r="V173" s="71"/>
-      <c r="Y173" s="70"/>
-      <c r="AK173" s="69"/>
-      <c r="AR173" s="73"/>
+      <c r="A173" s="72"/>
+      <c r="R173" s="73"/>
+      <c r="T173" s="73"/>
+      <c r="V173" s="74"/>
+      <c r="Y173" s="73"/>
+      <c r="AK173" s="72"/>
+      <c r="AR173" s="76"/>
     </row>
     <row r="174" ht="35.25" customHeight="1">
-      <c r="A174" s="69"/>
-      <c r="R174" s="70"/>
-      <c r="T174" s="70"/>
-      <c r="V174" s="71"/>
-      <c r="Y174" s="70"/>
-      <c r="AK174" s="69"/>
-      <c r="AR174" s="73"/>
+      <c r="A174" s="72"/>
+      <c r="R174" s="73"/>
+      <c r="T174" s="73"/>
+      <c r="V174" s="74"/>
+      <c r="Y174" s="73"/>
+      <c r="AK174" s="72"/>
+      <c r="AR174" s="76"/>
     </row>
     <row r="175" ht="35.25" customHeight="1">
-      <c r="A175" s="69"/>
-      <c r="R175" s="70"/>
-      <c r="T175" s="70"/>
-      <c r="V175" s="71"/>
-      <c r="Y175" s="70"/>
-      <c r="AK175" s="69"/>
-      <c r="AR175" s="73"/>
+      <c r="A175" s="72"/>
+      <c r="R175" s="73"/>
+      <c r="T175" s="73"/>
+      <c r="V175" s="74"/>
+      <c r="Y175" s="73"/>
+      <c r="AK175" s="72"/>
+      <c r="AR175" s="76"/>
     </row>
     <row r="176" ht="35.25" customHeight="1">
-      <c r="A176" s="69"/>
-      <c r="R176" s="70"/>
-      <c r="T176" s="70"/>
-      <c r="V176" s="71"/>
-      <c r="Y176" s="70"/>
-      <c r="AK176" s="69"/>
-      <c r="AR176" s="73"/>
+      <c r="A176" s="72"/>
+      <c r="R176" s="73"/>
+      <c r="T176" s="73"/>
+      <c r="V176" s="74"/>
+      <c r="Y176" s="73"/>
+      <c r="AK176" s="72"/>
+      <c r="AR176" s="76"/>
     </row>
     <row r="177" ht="35.25" customHeight="1">
-      <c r="A177" s="69"/>
-      <c r="R177" s="70"/>
-      <c r="T177" s="70"/>
-      <c r="V177" s="71"/>
-      <c r="Y177" s="70"/>
-      <c r="AK177" s="69"/>
-      <c r="AR177" s="73"/>
+      <c r="A177" s="72"/>
+      <c r="R177" s="73"/>
+      <c r="T177" s="73"/>
+      <c r="V177" s="74"/>
+      <c r="Y177" s="73"/>
+      <c r="AK177" s="72"/>
+      <c r="AR177" s="76"/>
     </row>
     <row r="178" ht="35.25" customHeight="1">
-      <c r="A178" s="69"/>
-      <c r="R178" s="70"/>
-      <c r="T178" s="70"/>
-      <c r="V178" s="71"/>
-      <c r="Y178" s="70"/>
-      <c r="AK178" s="69"/>
-      <c r="AR178" s="73"/>
+      <c r="A178" s="72"/>
+      <c r="R178" s="73"/>
+      <c r="T178" s="73"/>
+      <c r="V178" s="74"/>
+      <c r="Y178" s="73"/>
+      <c r="AK178" s="72"/>
+      <c r="AR178" s="76"/>
     </row>
     <row r="179" ht="35.25" customHeight="1">
-      <c r="A179" s="69"/>
-      <c r="R179" s="70"/>
-      <c r="T179" s="70"/>
-      <c r="V179" s="71"/>
-      <c r="Y179" s="70"/>
-      <c r="AK179" s="69"/>
-      <c r="AR179" s="73"/>
+      <c r="A179" s="72"/>
+      <c r="R179" s="73"/>
+      <c r="T179" s="73"/>
+      <c r="V179" s="74"/>
+      <c r="Y179" s="73"/>
+      <c r="AK179" s="72"/>
+      <c r="AR179" s="76"/>
     </row>
     <row r="180" ht="35.25" customHeight="1">
-      <c r="A180" s="69"/>
-      <c r="R180" s="70"/>
-      <c r="T180" s="70"/>
-      <c r="V180" s="71"/>
-      <c r="Y180" s="70"/>
-      <c r="AK180" s="69"/>
-      <c r="AR180" s="73"/>
+      <c r="A180" s="72"/>
+      <c r="R180" s="73"/>
+      <c r="T180" s="73"/>
+      <c r="V180" s="74"/>
+      <c r="Y180" s="73"/>
+      <c r="AK180" s="72"/>
+      <c r="AR180" s="76"/>
     </row>
     <row r="181" ht="35.25" customHeight="1">
-      <c r="A181" s="69"/>
-      <c r="R181" s="70"/>
-      <c r="T181" s="70"/>
-      <c r="V181" s="71"/>
-      <c r="Y181" s="70"/>
-      <c r="AK181" s="69"/>
-      <c r="AR181" s="73"/>
+      <c r="A181" s="72"/>
+      <c r="R181" s="73"/>
+      <c r="T181" s="73"/>
+      <c r="V181" s="74"/>
+      <c r="Y181" s="73"/>
+      <c r="AK181" s="72"/>
+      <c r="AR181" s="76"/>
     </row>
     <row r="182" ht="35.25" customHeight="1">
-      <c r="A182" s="69"/>
-      <c r="R182" s="70"/>
-      <c r="T182" s="70"/>
-      <c r="V182" s="71"/>
-      <c r="Y182" s="70"/>
-      <c r="AK182" s="69"/>
-      <c r="AR182" s="73"/>
+      <c r="A182" s="72"/>
+      <c r="R182" s="73"/>
+      <c r="T182" s="73"/>
+      <c r="V182" s="74"/>
+      <c r="Y182" s="73"/>
+      <c r="AK182" s="72"/>
+      <c r="AR182" s="76"/>
     </row>
     <row r="183" ht="35.25" customHeight="1">
-      <c r="A183" s="69"/>
-      <c r="R183" s="70"/>
-      <c r="T183" s="70"/>
-      <c r="V183" s="71"/>
-      <c r="Y183" s="70"/>
-      <c r="AK183" s="69"/>
-      <c r="AR183" s="73"/>
+      <c r="A183" s="72"/>
+      <c r="R183" s="73"/>
+      <c r="T183" s="73"/>
+      <c r="V183" s="74"/>
+      <c r="Y183" s="73"/>
+      <c r="AK183" s="72"/>
+      <c r="AR183" s="76"/>
     </row>
     <row r="184" ht="35.25" customHeight="1">
-      <c r="A184" s="69"/>
-      <c r="R184" s="70"/>
-      <c r="T184" s="70"/>
-      <c r="V184" s="71"/>
-      <c r="Y184" s="70"/>
-      <c r="AK184" s="69"/>
-      <c r="AR184" s="73"/>
+      <c r="A184" s="72"/>
+      <c r="R184" s="73"/>
+      <c r="T184" s="73"/>
+      <c r="V184" s="74"/>
+      <c r="Y184" s="73"/>
+      <c r="AK184" s="72"/>
+      <c r="AR184" s="76"/>
     </row>
     <row r="185" ht="35.25" customHeight="1">
-      <c r="A185" s="69"/>
-      <c r="R185" s="70"/>
-      <c r="T185" s="70"/>
-      <c r="V185" s="71"/>
-      <c r="Y185" s="70"/>
-      <c r="AK185" s="69"/>
-      <c r="AR185" s="73"/>
+      <c r="A185" s="72"/>
+      <c r="R185" s="73"/>
+      <c r="T185" s="73"/>
+      <c r="V185" s="74"/>
+      <c r="Y185" s="73"/>
+      <c r="AK185" s="72"/>
+      <c r="AR185" s="76"/>
     </row>
     <row r="186" ht="35.25" customHeight="1">
-      <c r="A186" s="69"/>
-      <c r="R186" s="70"/>
-      <c r="T186" s="70"/>
-      <c r="V186" s="71"/>
-      <c r="Y186" s="70"/>
-      <c r="AK186" s="69"/>
-      <c r="AR186" s="73"/>
+      <c r="A186" s="72"/>
+      <c r="R186" s="73"/>
+      <c r="T186" s="73"/>
+      <c r="V186" s="74"/>
+      <c r="Y186" s="73"/>
+      <c r="AK186" s="72"/>
+      <c r="AR186" s="76"/>
     </row>
     <row r="187" ht="35.25" customHeight="1">
-      <c r="A187" s="69"/>
-      <c r="R187" s="70"/>
-      <c r="T187" s="70"/>
-      <c r="V187" s="71"/>
-      <c r="Y187" s="70"/>
-      <c r="AK187" s="69"/>
-      <c r="AR187" s="73"/>
+      <c r="A187" s="72"/>
+      <c r="R187" s="73"/>
+      <c r="T187" s="73"/>
+      <c r="V187" s="74"/>
+      <c r="Y187" s="73"/>
+      <c r="AK187" s="72"/>
+      <c r="AR187" s="76"/>
     </row>
     <row r="188" ht="35.25" customHeight="1">
-      <c r="A188" s="69"/>
-      <c r="R188" s="70"/>
-      <c r="T188" s="70"/>
-      <c r="V188" s="71"/>
-      <c r="Y188" s="70"/>
-      <c r="AK188" s="69"/>
-      <c r="AR188" s="73"/>
+      <c r="A188" s="72"/>
+      <c r="R188" s="73"/>
+      <c r="T188" s="73"/>
+      <c r="V188" s="74"/>
+      <c r="Y188" s="73"/>
+      <c r="AK188" s="72"/>
+      <c r="AR188" s="76"/>
     </row>
     <row r="189" ht="35.25" customHeight="1">
-      <c r="A189" s="69"/>
-      <c r="R189" s="70"/>
-      <c r="T189" s="70"/>
-      <c r="V189" s="71"/>
-      <c r="Y189" s="70"/>
-      <c r="AK189" s="69"/>
-      <c r="AR189" s="73"/>
+      <c r="A189" s="72"/>
+      <c r="R189" s="73"/>
+      <c r="T189" s="73"/>
+      <c r="V189" s="74"/>
+      <c r="Y189" s="73"/>
+      <c r="AK189" s="72"/>
+      <c r="AR189" s="76"/>
     </row>
     <row r="190" ht="35.25" customHeight="1">
-      <c r="A190" s="69"/>
-      <c r="R190" s="70"/>
-      <c r="T190" s="70"/>
-      <c r="V190" s="71"/>
-      <c r="Y190" s="70"/>
-      <c r="AK190" s="69"/>
-      <c r="AR190" s="73"/>
+      <c r="A190" s="72"/>
+      <c r="R190" s="73"/>
+      <c r="T190" s="73"/>
+      <c r="V190" s="74"/>
+      <c r="Y190" s="73"/>
+      <c r="AK190" s="72"/>
+      <c r="AR190" s="76"/>
     </row>
     <row r="191" ht="35.25" customHeight="1">
-      <c r="A191" s="69"/>
-      <c r="R191" s="70"/>
-      <c r="T191" s="70"/>
-      <c r="V191" s="71"/>
-      <c r="Y191" s="70"/>
-      <c r="AK191" s="69"/>
-      <c r="AR191" s="73"/>
+      <c r="A191" s="72"/>
+      <c r="R191" s="73"/>
+      <c r="T191" s="73"/>
+      <c r="V191" s="74"/>
+      <c r="Y191" s="73"/>
+      <c r="AK191" s="72"/>
+      <c r="AR191" s="76"/>
     </row>
     <row r="192" ht="35.25" customHeight="1">
-      <c r="A192" s="69"/>
-      <c r="R192" s="70"/>
-      <c r="T192" s="70"/>
-      <c r="V192" s="71"/>
-      <c r="Y192" s="70"/>
-      <c r="AK192" s="69"/>
-      <c r="AR192" s="73"/>
+      <c r="A192" s="72"/>
+      <c r="R192" s="73"/>
+      <c r="T192" s="73"/>
+      <c r="V192" s="74"/>
+      <c r="Y192" s="73"/>
+      <c r="AK192" s="72"/>
+      <c r="AR192" s="76"/>
     </row>
     <row r="193" ht="35.25" customHeight="1">
-      <c r="A193" s="69"/>
-      <c r="R193" s="70"/>
-      <c r="T193" s="70"/>
-      <c r="V193" s="71"/>
-      <c r="Y193" s="70"/>
-      <c r="AK193" s="69"/>
-      <c r="AR193" s="73"/>
+      <c r="A193" s="72"/>
+      <c r="R193" s="73"/>
+      <c r="T193" s="73"/>
+      <c r="V193" s="74"/>
+      <c r="Y193" s="73"/>
+      <c r="AK193" s="72"/>
+      <c r="AR193" s="76"/>
     </row>
     <row r="194" ht="35.25" customHeight="1">
-      <c r="A194" s="69"/>
-      <c r="R194" s="70"/>
-      <c r="T194" s="70"/>
-      <c r="V194" s="71"/>
-      <c r="Y194" s="70"/>
-      <c r="AK194" s="69"/>
-      <c r="AR194" s="73"/>
+      <c r="A194" s="72"/>
+      <c r="R194" s="73"/>
+      <c r="T194" s="73"/>
+      <c r="V194" s="74"/>
+      <c r="Y194" s="73"/>
+      <c r="AK194" s="72"/>
+      <c r="AR194" s="76"/>
     </row>
     <row r="195" ht="35.25" customHeight="1">
-      <c r="A195" s="69"/>
-      <c r="R195" s="70"/>
-      <c r="T195" s="70"/>
-      <c r="V195" s="71"/>
-      <c r="Y195" s="70"/>
-      <c r="AK195" s="69"/>
-      <c r="AR195" s="73"/>
+      <c r="A195" s="72"/>
+      <c r="R195" s="73"/>
+      <c r="T195" s="73"/>
+      <c r="V195" s="74"/>
+      <c r="Y195" s="73"/>
+      <c r="AK195" s="72"/>
+      <c r="AR195" s="76"/>
     </row>
     <row r="196" ht="35.25" customHeight="1">
-      <c r="A196" s="69"/>
-      <c r="R196" s="70"/>
-      <c r="T196" s="70"/>
-      <c r="V196" s="71"/>
-      <c r="Y196" s="70"/>
-      <c r="AK196" s="69"/>
-      <c r="AR196" s="73"/>
+      <c r="A196" s="72"/>
+      <c r="R196" s="73"/>
+      <c r="T196" s="73"/>
+      <c r="V196" s="74"/>
+      <c r="Y196" s="73"/>
+      <c r="AK196" s="72"/>
+      <c r="AR196" s="76"/>
     </row>
     <row r="197" ht="35.25" customHeight="1">
-      <c r="A197" s="69"/>
-      <c r="R197" s="70"/>
-      <c r="T197" s="70"/>
-      <c r="V197" s="71"/>
-      <c r="Y197" s="70"/>
-      <c r="AK197" s="69"/>
-      <c r="AR197" s="73"/>
+      <c r="A197" s="72"/>
+      <c r="R197" s="73"/>
+      <c r="T197" s="73"/>
+      <c r="V197" s="74"/>
+      <c r="Y197" s="73"/>
+      <c r="AK197" s="72"/>
+      <c r="AR197" s="76"/>
     </row>
     <row r="198" ht="35.25" customHeight="1">
-      <c r="A198" s="69"/>
-      <c r="R198" s="70"/>
-      <c r="T198" s="70"/>
-      <c r="V198" s="71"/>
-      <c r="Y198" s="70"/>
-      <c r="AK198" s="69"/>
-      <c r="AR198" s="73"/>
+      <c r="A198" s="72"/>
+      <c r="R198" s="73"/>
+      <c r="T198" s="73"/>
+      <c r="V198" s="74"/>
+      <c r="Y198" s="73"/>
+      <c r="AK198" s="72"/>
+      <c r="AR198" s="76"/>
     </row>
     <row r="199" ht="35.25" customHeight="1">
-      <c r="A199" s="69"/>
-      <c r="R199" s="70"/>
-      <c r="T199" s="70"/>
-      <c r="V199" s="71"/>
-      <c r="Y199" s="70"/>
-      <c r="AK199" s="69"/>
-      <c r="AR199" s="73"/>
+      <c r="A199" s="72"/>
+      <c r="R199" s="73"/>
+      <c r="T199" s="73"/>
+      <c r="V199" s="74"/>
+      <c r="Y199" s="73"/>
+      <c r="AK199" s="72"/>
+      <c r="AR199" s="76"/>
     </row>
     <row r="200" ht="35.25" customHeight="1">
-      <c r="A200" s="69"/>
-      <c r="R200" s="70"/>
-      <c r="T200" s="70"/>
-      <c r="V200" s="71"/>
-      <c r="Y200" s="70"/>
-      <c r="AK200" s="69"/>
-      <c r="AR200" s="73"/>
+      <c r="A200" s="72"/>
+      <c r="R200" s="73"/>
+      <c r="T200" s="73"/>
+      <c r="V200" s="74"/>
+      <c r="Y200" s="73"/>
+      <c r="AK200" s="72"/>
+      <c r="AR200" s="76"/>
     </row>
     <row r="201" ht="35.25" customHeight="1">
-      <c r="A201" s="69"/>
-      <c r="R201" s="70"/>
-      <c r="T201" s="70"/>
-      <c r="V201" s="71"/>
-      <c r="Y201" s="70"/>
-      <c r="AK201" s="69"/>
-      <c r="AR201" s="73"/>
+      <c r="A201" s="72"/>
+      <c r="R201" s="73"/>
+      <c r="T201" s="73"/>
+      <c r="V201" s="74"/>
+      <c r="Y201" s="73"/>
+      <c r="AK201" s="72"/>
+      <c r="AR201" s="76"/>
     </row>
     <row r="202" ht="35.25" customHeight="1">
-      <c r="A202" s="69"/>
-      <c r="R202" s="70"/>
-      <c r="T202" s="70"/>
-      <c r="V202" s="71"/>
-      <c r="Y202" s="70"/>
-      <c r="AK202" s="69"/>
-      <c r="AR202" s="73"/>
+      <c r="A202" s="72"/>
+      <c r="R202" s="73"/>
+      <c r="T202" s="73"/>
+      <c r="V202" s="74"/>
+      <c r="Y202" s="73"/>
+      <c r="AK202" s="72"/>
+      <c r="AR202" s="76"/>
     </row>
     <row r="203" ht="35.25" customHeight="1">
-      <c r="A203" s="69"/>
-      <c r="R203" s="70"/>
-      <c r="T203" s="70"/>
-      <c r="V203" s="71"/>
-      <c r="Y203" s="70"/>
-      <c r="AK203" s="69"/>
-      <c r="AR203" s="73"/>
+      <c r="A203" s="72"/>
+      <c r="R203" s="73"/>
+      <c r="T203" s="73"/>
+      <c r="V203" s="74"/>
+      <c r="Y203" s="73"/>
+      <c r="AK203" s="72"/>
+      <c r="AR203" s="76"/>
     </row>
     <row r="204" ht="35.25" customHeight="1">
-      <c r="A204" s="69"/>
-      <c r="R204" s="70"/>
-      <c r="T204" s="70"/>
-      <c r="V204" s="71"/>
-      <c r="Y204" s="70"/>
-      <c r="AK204" s="69"/>
-      <c r="AR204" s="73"/>
+      <c r="A204" s="72"/>
+      <c r="R204" s="73"/>
+      <c r="T204" s="73"/>
+      <c r="V204" s="74"/>
+      <c r="Y204" s="73"/>
+      <c r="AK204" s="72"/>
+      <c r="AR204" s="76"/>
     </row>
     <row r="205" ht="35.25" customHeight="1">
-      <c r="A205" s="69"/>
-      <c r="R205" s="70"/>
-      <c r="T205" s="70"/>
-      <c r="V205" s="71"/>
-      <c r="Y205" s="70"/>
-      <c r="AK205" s="69"/>
-      <c r="AR205" s="73"/>
+      <c r="A205" s="72"/>
+      <c r="R205" s="73"/>
+      <c r="T205" s="73"/>
+      <c r="V205" s="74"/>
+      <c r="Y205" s="73"/>
+      <c r="AK205" s="72"/>
+      <c r="AR205" s="76"/>
     </row>
     <row r="206" ht="35.25" customHeight="1">
-      <c r="A206" s="69"/>
-      <c r="R206" s="70"/>
-      <c r="T206" s="70"/>
-      <c r="V206" s="71"/>
-      <c r="Y206" s="70"/>
-      <c r="AK206" s="69"/>
-      <c r="AR206" s="73"/>
+      <c r="A206" s="72"/>
+      <c r="R206" s="73"/>
+      <c r="T206" s="73"/>
+      <c r="V206" s="74"/>
+      <c r="Y206" s="73"/>
+      <c r="AK206" s="72"/>
+      <c r="AR206" s="76"/>
     </row>
     <row r="207" ht="35.25" customHeight="1">
-      <c r="A207" s="69"/>
-      <c r="R207" s="70"/>
-      <c r="T207" s="70"/>
-      <c r="V207" s="71"/>
-      <c r="Y207" s="70"/>
-      <c r="AK207" s="69"/>
-      <c r="AR207" s="73"/>
+      <c r="A207" s="72"/>
+      <c r="R207" s="73"/>
+      <c r="T207" s="73"/>
+      <c r="V207" s="74"/>
+      <c r="Y207" s="73"/>
+      <c r="AK207" s="72"/>
+      <c r="AR207" s="76"/>
     </row>
     <row r="208" ht="35.25" customHeight="1">
-      <c r="A208" s="69"/>
-      <c r="R208" s="70"/>
-      <c r="T208" s="70"/>
-      <c r="V208" s="71"/>
-      <c r="Y208" s="70"/>
-      <c r="AK208" s="69"/>
-      <c r="AR208" s="73"/>
+      <c r="A208" s="72"/>
+      <c r="R208" s="73"/>
+      <c r="T208" s="73"/>
+      <c r="V208" s="74"/>
+      <c r="Y208" s="73"/>
+      <c r="AK208" s="72"/>
+      <c r="AR208" s="76"/>
     </row>
     <row r="209" ht="35.25" customHeight="1">
-      <c r="A209" s="69"/>
-      <c r="R209" s="70"/>
-      <c r="T209" s="70"/>
-      <c r="V209" s="71"/>
-      <c r="Y209" s="70"/>
-      <c r="AK209" s="69"/>
-      <c r="AR209" s="73"/>
+      <c r="A209" s="72"/>
+      <c r="R209" s="73"/>
+      <c r="T209" s="73"/>
+      <c r="V209" s="74"/>
+      <c r="Y209" s="73"/>
+      <c r="AK209" s="72"/>
+      <c r="AR209" s="76"/>
     </row>
     <row r="210" ht="35.25" customHeight="1">
-      <c r="A210" s="69"/>
-      <c r="R210" s="70"/>
-      <c r="T210" s="70"/>
-      <c r="V210" s="71"/>
-      <c r="Y210" s="70"/>
-      <c r="AK210" s="69"/>
-      <c r="AR210" s="73"/>
+      <c r="A210" s="72"/>
+      <c r="R210" s="73"/>
+      <c r="T210" s="73"/>
+      <c r="V210" s="74"/>
+      <c r="Y210" s="73"/>
+      <c r="AK210" s="72"/>
+      <c r="AR210" s="76"/>
     </row>
     <row r="211" ht="35.25" customHeight="1">
-      <c r="A211" s="69"/>
-      <c r="R211" s="70"/>
-      <c r="T211" s="70"/>
-      <c r="V211" s="71"/>
-      <c r="Y211" s="70"/>
-      <c r="AK211" s="69"/>
-      <c r="AR211" s="73"/>
+      <c r="A211" s="72"/>
+      <c r="R211" s="73"/>
+      <c r="T211" s="73"/>
+      <c r="V211" s="74"/>
+      <c r="Y211" s="73"/>
+      <c r="AK211" s="72"/>
+      <c r="AR211" s="76"/>
     </row>
     <row r="212" ht="35.25" customHeight="1">
-      <c r="A212" s="69"/>
-      <c r="R212" s="70"/>
-      <c r="T212" s="70"/>
-      <c r="V212" s="71"/>
-      <c r="Y212" s="70"/>
-      <c r="AK212" s="69"/>
-      <c r="AR212" s="73"/>
+      <c r="A212" s="72"/>
+      <c r="R212" s="73"/>
+      <c r="T212" s="73"/>
+      <c r="V212" s="74"/>
+      <c r="Y212" s="73"/>
+      <c r="AK212" s="72"/>
+      <c r="AR212" s="76"/>
     </row>
     <row r="213" ht="35.25" customHeight="1">
-      <c r="A213" s="69"/>
-      <c r="R213" s="70"/>
-      <c r="T213" s="70"/>
-      <c r="V213" s="71"/>
-      <c r="Y213" s="70"/>
-      <c r="AK213" s="69"/>
-      <c r="AR213" s="73"/>
+      <c r="A213" s="72"/>
+      <c r="R213" s="73"/>
+      <c r="T213" s="73"/>
+      <c r="V213" s="74"/>
+      <c r="Y213" s="73"/>
+      <c r="AK213" s="72"/>
+      <c r="AR213" s="76"/>
     </row>
     <row r="214" ht="35.25" customHeight="1">
-      <c r="A214" s="69"/>
-      <c r="R214" s="70"/>
-      <c r="T214" s="70"/>
-      <c r="V214" s="71"/>
-      <c r="Y214" s="70"/>
-      <c r="AK214" s="69"/>
-      <c r="AR214" s="73"/>
+      <c r="A214" s="72"/>
+      <c r="R214" s="73"/>
+      <c r="T214" s="73"/>
+      <c r="V214" s="74"/>
+      <c r="Y214" s="73"/>
+      <c r="AK214" s="72"/>
+      <c r="AR214" s="76"/>
     </row>
     <row r="215" ht="35.25" customHeight="1">
-      <c r="A215" s="69"/>
-      <c r="R215" s="70"/>
-      <c r="T215" s="70"/>
-      <c r="V215" s="71"/>
-      <c r="Y215" s="70"/>
-      <c r="AK215" s="69"/>
-      <c r="AR215" s="73"/>
+      <c r="A215" s="72"/>
+      <c r="R215" s="73"/>
+      <c r="T215" s="73"/>
+      <c r="V215" s="74"/>
+      <c r="Y215" s="73"/>
+      <c r="AK215" s="72"/>
+      <c r="AR215" s="76"/>
     </row>
     <row r="216" ht="35.25" customHeight="1">
-      <c r="A216" s="69"/>
-      <c r="R216" s="70"/>
-      <c r="T216" s="70"/>
-      <c r="V216" s="71"/>
-      <c r="Y216" s="70"/>
-      <c r="AK216" s="69"/>
-      <c r="AR216" s="73"/>
+      <c r="A216" s="72"/>
+      <c r="R216" s="73"/>
+      <c r="T216" s="73"/>
+      <c r="V216" s="74"/>
+      <c r="Y216" s="73"/>
+      <c r="AK216" s="72"/>
+      <c r="AR216" s="76"/>
     </row>
     <row r="217" ht="35.25" customHeight="1">
-      <c r="A217" s="69"/>
-      <c r="R217" s="70"/>
-      <c r="T217" s="70"/>
-      <c r="V217" s="71"/>
-      <c r="Y217" s="70"/>
-      <c r="AK217" s="69"/>
-      <c r="AR217" s="73"/>
+      <c r="A217" s="72"/>
+      <c r="R217" s="73"/>
+      <c r="T217" s="73"/>
+      <c r="V217" s="74"/>
+      <c r="Y217" s="73"/>
+      <c r="AK217" s="72"/>
+      <c r="AR217" s="76"/>
     </row>
     <row r="218" ht="35.25" customHeight="1">
-      <c r="A218" s="69"/>
-      <c r="R218" s="70"/>
-      <c r="T218" s="70"/>
-      <c r="V218" s="71"/>
-      <c r="Y218" s="70"/>
-      <c r="AK218" s="69"/>
-      <c r="AR218" s="73"/>
+      <c r="A218" s="72"/>
+      <c r="R218" s="73"/>
+      <c r="T218" s="73"/>
+      <c r="V218" s="74"/>
+      <c r="Y218" s="73"/>
+      <c r="AK218" s="72"/>
+      <c r="AR218" s="76"/>
     </row>
     <row r="219" ht="35.25" customHeight="1">
-      <c r="A219" s="69"/>
-      <c r="R219" s="70"/>
-      <c r="T219" s="70"/>
-      <c r="V219" s="71"/>
-      <c r="Y219" s="70"/>
-      <c r="AK219" s="69"/>
-      <c r="AR219" s="73"/>
+      <c r="A219" s="72"/>
+      <c r="R219" s="73"/>
+      <c r="T219" s="73"/>
+      <c r="V219" s="74"/>
+      <c r="Y219" s="73"/>
+      <c r="AK219" s="72"/>
+      <c r="AR219" s="76"/>
     </row>
     <row r="220" ht="35.25" customHeight="1">
-      <c r="A220" s="69"/>
-      <c r="R220" s="70"/>
-      <c r="T220" s="70"/>
-      <c r="V220" s="71"/>
-      <c r="Y220" s="70"/>
-      <c r="AK220" s="69"/>
-      <c r="AR220" s="73"/>
+      <c r="A220" s="72"/>
+      <c r="R220" s="73"/>
+      <c r="T220" s="73"/>
+      <c r="V220" s="74"/>
+      <c r="Y220" s="73"/>
+      <c r="AK220" s="72"/>
+      <c r="AR220" s="76"/>
     </row>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
